--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,70 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+  <si>
+    <t>修改日期/
+修改者</t>
   </si>
   <si>
     <t>修改类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改类方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改说明</t>
+  </si>
+  <si>
+    <t>功能</t>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高小艳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认日期/
+确认者</t>
+  </si>
+  <si>
+    <t>2016/7/18
+高小艳</t>
   </si>
   <si>
     <t>UserController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Login()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">增加了两个密码加密工具类
-DES3、MD5
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>增加判断当前登录的用户名是否存在，同时数据库增加一个字段：</t>
+      <t xml:space="preserve">
+增加判断当前登录的用户名是否存在，同时数据库增加一个字段：</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Salt</t>
     </r>
@@ -73,79 +69,177 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>，更新密码</t>
     </r>
   </si>
   <si>
+    <t>登录功能</t>
+  </si>
+  <si>
+    <t>(1)安全性问题
+防止抓包工具篡改参数
+(2)密码加盐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增加了两个密码加密工具类
+DES3、MD5
+</t>
+  </si>
+  <si>
     <t>MyAssetsController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>editAsset()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询资产增加了一个参数：userId</t>
   </si>
   <si>
     <t>asset_verification()</t>
   </si>
   <si>
     <t>OrderMgrController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>saveOrder()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WafController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>saveWafOrder()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询资产增加了一个参数：userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>shoppingController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingCar()</t>
+  </si>
+  <si>
+    <t>2016/7/18
+张少华</t>
+  </si>
+  <si>
+    <t>source\scripts\regist\regist.js</t>
+  </si>
+  <si>
+    <t>checkPassword()</t>
+  </si>
+  <si>
+    <t>注册时设置密码和确认密码不一致，修改设置密码使二者一致，但确认密码后依然显示错误</t>
+  </si>
+  <si>
+    <t>注册功能</t>
+  </si>
+  <si>
+    <t>禅道ID：008</t>
+  </si>
+  <si>
+    <t>regist()</t>
+  </si>
+  <si>
+    <t>注册功能
+密码加盐保存</t>
+  </si>
+  <si>
+    <t>密码加盐</t>
+  </si>
+  <si>
+    <t>注册功能
+改为异步提交，传入参数在后台加验证</t>
+  </si>
+  <si>
+    <t>安全性问题
+防止抓包工具篡改参数</t>
+  </si>
+  <si>
+    <t>submitForm()</t>
+  </si>
+  <si>
+    <t>saveUserDataBate()</t>
+  </si>
+  <si>
+    <t>个人资料保存功能
+（1）前台传入参数（手机号和邮箱）删除
+（2）追加公司名称后台验证</t>
+  </si>
+  <si>
+    <t>个人资料保存</t>
+  </si>
+  <si>
+    <t>source\scripts\common\personal.js</t>
+  </si>
+  <si>
+    <t>BalanceController</t>
+  </si>
+  <si>
+    <t>collectBalance()</t>
+  </si>
+  <si>
+    <t>领取安全币功能
+后台追加orderListId的验证</t>
+  </si>
+  <si>
+    <t>领取安全币</t>
+  </si>
+  <si>
+    <t>2016/7/19
+高小艳</t>
   </si>
   <si>
     <t>新增加的方法
 selfHelpOrderOpera()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingCar()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保存服务详情页操作，将服务详情操作的信息添加到数据库中；数据库新增加一张表：cs_settlemet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/19
+张少华</t>
+  </si>
+  <si>
+    <t>\page\details\shoppingCart-order.jsp</t>
+  </si>
+  <si>
+    <t>购物车有些列没有对齐 格式不整齐</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>禅道ID：010</t>
+  </si>
+  <si>
+    <t>source/css/cashierdesk.css
+source/page/details/repay.jsp</t>
+  </si>
+  <si>
+    <t>付款后页面，当款项长度很长时，页面混乱</t>
+  </si>
+  <si>
+    <t>支付功能</t>
+  </si>
+  <si>
+    <t>禅道ID：016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -153,26 +247,388 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -182,38 +638,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -221,96 +677,442 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -598,263 +1400,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="69.75" customHeight="1">
-      <c r="A2" s="12">
-        <v>42569</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="2" ht="69.75" customHeight="1" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="6" t="s">
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A5" s="15"/>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A6" s="15"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A7" s="15"/>
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A8" s="15"/>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A9" s="15"/>
+      <c r="B9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:7">
+      <c r="A10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="1:7">
+      <c r="A11" s="34"/>
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A10" s="5">
-        <v>42570</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="8"/>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A12" s="34"/>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A13" s="34"/>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A14" s="34"/>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A15" s="34"/>
+      <c r="B15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" ht="40.5" spans="1:7">
+      <c r="A16" s="34"/>
+      <c r="B16" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="1:7">
+      <c r="A18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="33"/>
+    </row>
+    <row r="19" ht="27" spans="1:7">
+      <c r="A19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="40"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="40"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="40"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C3:C4"/>
+  <mergeCells count="20">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:E9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="汤" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>修改日期/
 修改者</t>
@@ -250,12 +251,143 @@
 防止抓包工具篡改参数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>2016/7/18
+汤欣荣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderList()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+我的订单打开速度过慢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID：009</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrderController</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCombine()/406</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchCombineByPage()/297</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOrderList()/154</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\source\page\personal\orderList.jsp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin:71  end:72</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin:83  end:84</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">在订单详情页面增加订单类型、订单起止时间、频率等信息 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\source\page\personal\userCenterList.jsp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\source\page\personal\warnDetail.jsp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\source\page\personal\warnDoctor.jsp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\source\page\personal\warnKeyword.jsp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\source\page\personal\warnUsable.jsp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\source\page\personal\warnRunDetail.jsp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/19
+汤欣荣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点页面地图右边框架建议向右移动，目前有一部分显示不全</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID：005</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID：021</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态感知地图鼠标浮动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>\source\page\anquanbang\sa_anquanbang.jsp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add begin:242</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add begin:252</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add begin:318</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add begin:223</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add begin:155</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify:141</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,9 +556,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -441,18 +570,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,47 +654,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,11 +702,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -603,6 +785,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -637,6 +820,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -812,39 +996,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="34" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="39" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -854,349 +1038,349 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="26" t="s">
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="27" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="10" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="10" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="10" t="s">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="10" t="s">
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="10" t="s">
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="10" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="17" t="s">
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="25"/>
-      <c r="B16" s="17" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" ht="27">
-      <c r="A19" s="9" t="s">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="53.25" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="24.95" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,12 +1389,269 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="E2:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1218,13 +1659,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="汤" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
   <si>
     <t>修改日期/
 修改者</t>
@@ -382,12 +380,78 @@
     <t>modify:141</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>2016/07/20
+高小艳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingController</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopBuy()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车结算功能：价格是后台计算</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车结算</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全性问题
+防止抓包工具篡改参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopSettlement()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车提交订单功能:价格是后台计算</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车提交订单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderMgrController</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveOrder()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即支付：保存订单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收银台提交订单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>settlement.jsp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收银台页面显示的服务详细信息是通过数据库读取，并删除页面隐藏域的值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即支付-收银台页面展示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,7 +579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -565,104 +629,128 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -674,27 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,7 +778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -785,7 +852,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -820,7 +886,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -996,26 +1061,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="39" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="39" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1038,329 +1103,479 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="39" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="41" t="s">
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="42" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="21" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="21" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="21" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="36"/>
       <c r="B9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="A10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="21" t="s">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="21" t="s">
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="31" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="21" t="s">
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="21" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="31" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="21" t="s">
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="21" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" ht="27">
+      <c r="A16" s="29"/>
+      <c r="B16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="33" customHeight="1">
+      <c r="A18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="19" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="27">
+      <c r="A19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="19" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="53.25" customHeight="1">
+      <c r="A20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="18"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="D12:D13"/>
@@ -1377,10 +1592,6 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1389,26 +1600,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="39" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="39" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1431,8 +1642,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A2" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1441,80 +1652,80 @@
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="47" t="s">
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="50" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="48"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="36"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="21" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="21" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="36"/>
+      <c r="B6" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="36"/>
       <c r="B7" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.9" customHeight="1">
+      <c r="A8" s="56" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1523,74 +1734,74 @@
       <c r="C8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="54" t="s">
         <v>84</v>
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="59"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="21" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="21" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="51"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="54.75" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1599,7 +1810,7 @@
       <c r="D13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>86</v>
       </c>
       <c r="F13" s="14" t="s">
@@ -1607,68 +1818,22 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="E2:E7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
   <si>
     <t>修改日期/
 修改者</t>
@@ -444,6 +444,56 @@
   </si>
   <si>
     <t>立即支付-收银台页面展示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/07/21
+高小艳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingController</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderBack()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全性问题
+防止抓包工具篡改参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>settlement.jsp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulnScanDetails.jsp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即支付-结算页页面展示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即支付-结算页</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算页：返回修改订单信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算页：返回修改订单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算页：返回修改订单信息，服务详情页面展示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务详情页展示</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,6 +705,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,16 +754,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -706,20 +777,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -731,12 +808,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -747,21 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,11 +1118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1104,7 +1160,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -1113,104 +1169,104 @@
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="34"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="25"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="26"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="36"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="32"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="34"/>
-      <c r="G9" s="27"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1231,7 +1287,7 @@
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="29"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
@@ -1250,69 +1306,69 @@
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="20"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="29"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="20" t="s">
         <v>40</v>
       </c>
@@ -1513,8 +1569,8 @@
       <c r="A26" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>95</v>
+      <c r="B26" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>100</v>
@@ -1562,21 +1618,129 @@
       <c r="D28" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>99</v>
+      <c r="E28" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="G28" s="17"/>
     </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1">
+      <c r="A35" s="17"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" s="17"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" ht="24.95" customHeight="1"/>
+    <row r="38" spans="1:7" ht="24.95" customHeight="1"/>
+    <row r="39" spans="1:7" ht="24.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
@@ -1586,12 +1750,11 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1643,7 +1806,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="42" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1652,80 +1815,80 @@
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="50" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="26"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="51"/>
       <c r="C4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="26"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="27"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:7" ht="52.9" customHeight="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="49" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1737,16 +1900,16 @@
       <c r="D8" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="61" t="s">
         <v>84</v>
       </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A9" s="29"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="20" t="s">
         <v>78</v>
       </c>
@@ -1754,12 +1917,12 @@
         <v>89</v>
       </c>
       <c r="D9" s="51"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="29"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="20" t="s">
         <v>79</v>
       </c>
@@ -1767,12 +1930,12 @@
         <v>90</v>
       </c>
       <c r="D10" s="51"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="25"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="29"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="20" t="s">
         <v>80</v>
       </c>
@@ -1780,12 +1943,12 @@
         <v>91</v>
       </c>
       <c r="D11" s="51"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="27"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="20" t="s">
         <v>81</v>
       </c>
@@ -1793,8 +1956,8 @@
         <v>92</v>
       </c>
       <c r="D12" s="51"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" ht="54.75" customHeight="1">

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
   <si>
     <t>修改日期/
 修改者</t>
@@ -494,6 +494,27 @@
   </si>
   <si>
     <t>服务详情页展示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/07/21
+高小艳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfHelpOrderMapper.xml</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车按下单时间倒序排列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID:028</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,65 +738,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1121,8 +1148,8 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1160,7 +1187,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -1169,104 +1196,104 @@
       <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="36"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="37"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="48" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="35"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="43"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="36"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="43"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="36"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="37"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1287,7 +1314,7 @@
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
@@ -1306,69 +1333,69 @@
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="35"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="37"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="39"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="35"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="39"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="20"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="37"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="39"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="20" t="s">
         <v>40</v>
       </c>
@@ -1686,12 +1713,22 @@
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="C32" s="26"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="26"/>
+      <c r="D32" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>126</v>
+      </c>
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -1735,12 +1772,6 @@
     <row r="39" spans="1:7" ht="24.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
@@ -1750,6 +1781,12 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D9"/>
     <mergeCell ref="E5:E9"/>
@@ -1806,7 +1843,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="29" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1815,80 +1852,80 @@
       <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="52" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="36"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="36"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="36"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="43"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="37"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="52.9" customHeight="1">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="51" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1897,67 +1934,67 @@
       <c r="C8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="63" t="s">
         <v>84</v>
       </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="62"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="39"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="20" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="39"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="37"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="62"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" ht="54.75" customHeight="1">

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="汤" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="146">
   <si>
     <t>修改日期/
 修改者</t>
@@ -65,7 +65,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Salt</t>
     </r>
@@ -439,18 +439,134 @@
   <si>
     <t>禅道ID：021</t>
   </si>
+  <si>
+    <t>2016/07/21
+张少华</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016/07/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+高小艳</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingController</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加购物车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全性问题
+防止抓包工具篡改参数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingCar()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopBuy()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/07/22
+高小艳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车跳转到结算页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopSettlement()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车结算页提交订单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WafController</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingWaf()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf 添加到购物车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf添加到购物车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyNowWafUI()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf立即购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveWafOrder</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wafOrderBack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买返回waf详情信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回修改订单信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf 立即购买跳转结算页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf立即购买跳转到结算页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,154 +589,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -628,8 +600,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,198 +616,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -889,255 +681,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1159,187 +709,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1628,17 +1140,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="$A36:$XFD36"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="34" style="1" customWidth="1"/>
@@ -1649,7 +1159,7 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="39" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1672,8 +1182,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1682,104 +1192,104 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="11"/>
-      <c r="B4" s="30"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="17"/>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="11"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="17"/>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="37" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="23" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1788,135 +1298,135 @@
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A11" s="27"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A11" s="19"/>
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="27"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="19"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A13" s="27"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="19"/>
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A14" s="27"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="19"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A15" s="27"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="19"/>
       <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" ht="27" spans="1:7">
-      <c r="A16" s="27"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" ht="27">
+      <c r="A16" s="19"/>
       <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" ht="54.75" customHeight="1" spans="1:7">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="54.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" ht="33" customHeight="1" spans="1:7">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="33" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -1924,38 +1434,38 @@
         <v>48</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" ht="27" spans="1:7">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="27">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" ht="53.25" customHeight="1" spans="1:7">
-      <c r="A20" s="41" t="s">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="53.25" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1964,19 +1474,19 @@
       <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A21" s="41" t="s">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1985,19 +1495,19 @@
       <c r="C21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A22" s="41" t="s">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -2006,19 +1516,19 @@
       <c r="C22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" ht="42" customHeight="1" spans="1:7">
-      <c r="A23" s="41" t="s">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -2027,59 +1537,59 @@
       <c r="C23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A24" s="41" t="s">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A24" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A25" s="41" t="s">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A25" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A26" s="41" t="s">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -2088,19 +1598,19 @@
       <c r="C26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" ht="42" customHeight="1" spans="1:7">
-      <c r="A27" s="41" t="s">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -2109,38 +1619,38 @@
       <c r="C27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A28" s="41" t="s">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" ht="30" customHeight="1" spans="1:7">
-      <c r="A29" s="41" t="s">
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1">
+      <c r="A29" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -2149,200 +1659,333 @@
       <c r="C29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="1:7">
-      <c r="A30" s="41" t="s">
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" ht="30" customHeight="1" spans="1:7">
-      <c r="A31" s="41" t="s">
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1">
+      <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="26"/>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="1:7">
-      <c r="A32" s="41" t="s">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1">
+      <c r="A32" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="42" t="s">
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="45"/>
-      <c r="B34" s="43" t="s">
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" ht="30" customHeight="1" spans="1:7">
-      <c r="A35" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="48" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1">
+      <c r="A35" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="49" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" ht="30" customHeight="1" spans="1:7">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" ht="30" customHeight="1" spans="1:7">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="26"/>
-    </row>
-    <row r="38" ht="30" customHeight="1" spans="1:7">
-      <c r="A38" s="26"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="26"/>
-    </row>
-    <row r="39" ht="24.95" customHeight="1"/>
-    <row r="40" ht="24.95" customHeight="1"/>
-    <row r="41" ht="24.95" customHeight="1"/>
+      <c r="F35" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1">
+      <c r="A37" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1">
+      <c r="A38" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1">
+      <c r="A40" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1">
+      <c r="A41" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1">
+      <c r="A42" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1">
+      <c r="A43" s="8"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="$A14:$XFD21"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="42.875" style="1" customWidth="1"/>
@@ -2353,7 +1996,7 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="39" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2376,8 +2019,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2386,80 +2029,80 @@
       <c r="C2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="17"/>
+      <c r="B3" s="41" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="11"/>
-      <c r="B4" s="17"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="11"/>
-      <c r="B5" s="18"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="39"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="11"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="17"/>
       <c r="B6" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="17"/>
       <c r="B7" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" ht="52.9" customHeight="1" spans="1:7">
-      <c r="A8" s="23" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.9" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2468,106 +2111,106 @@
       <c r="C8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A9" s="27"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A9" s="19"/>
       <c r="B9" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="27"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="19"/>
       <c r="B10" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A11" s="27"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="19"/>
       <c r="B11" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="27"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="19"/>
       <c r="B12" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" ht="54.75" customHeight="1" spans="1:7">
+      <c r="D12" s="42"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="54.75" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="9" t="s">
         <v>120</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D12"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D12"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="157">
   <si>
     <t>修改日期/
 修改者</t>
@@ -538,14 +538,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>saveWafOrder</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wafOrderBack</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>立即购买返回waf详情信息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -559,6 +551,60 @@
   </si>
   <si>
     <t>waf立即购买跳转到结算页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/07/23
+高小艳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingAPIController</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveWafOrder()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wafOrderBack()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>settlementAPI()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>API立即购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>api立即购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全性问题
+防止抓包工具篡改参数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveOrderAPI()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>API结算页提交订单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>api立即购买-结算页提交订单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingCarAPI()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>API添加到购物车</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +782,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -748,68 +860,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -828,24 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,11 +1193,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1183,7 +1235,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1192,104 +1244,104 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="42" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="39"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="39"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="39"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="40"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1310,7 +1362,7 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
@@ -1329,69 +1381,69 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="19"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="38"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="40"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="19"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="38"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="19"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="40"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="19"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
@@ -1728,7 +1780,7 @@
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -1737,26 +1789,26 @@
       <c r="C33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="21"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="21"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
@@ -1873,10 +1925,10 @@
         <v>138</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>126</v>
@@ -1890,8 +1942,8 @@
       <c r="B41" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>140</v>
+      <c r="C41" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>139</v>
@@ -1911,40 +1963,105 @@
       <c r="B42" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="16" t="s">
         <v>126</v>
       </c>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1">
-      <c r="A43" s="8"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="6"/>
+      <c r="A43" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="6"/>
+      <c r="A44" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="G44" s="8"/>
     </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1">
+      <c r="A45" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1"/>
+    <row r="47" spans="1:7" ht="30" customHeight="1"/>
+    <row r="48" spans="1:7" ht="30" customHeight="1"/>
+    <row r="49" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="G12:G13"/>
@@ -1953,22 +2070,6 @@
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2020,7 +2121,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="38" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2029,80 +2130,80 @@
       <c r="C2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="39"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="39"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="39"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="17"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="40"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="52.9" customHeight="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="40" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2111,67 +2212,67 @@
       <c r="C8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="47" t="s">
         <v>107</v>
       </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A9" s="19"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="52"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="38"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="19"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="40"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="19"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="52"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="54.75" customHeight="1">
@@ -2197,17 +2298,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D12"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="汤" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>修改日期/
 修改者</t>
@@ -65,7 +65,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Salt</t>
     </r>
@@ -341,111 +341,13 @@
     <t>修改手机号</t>
   </si>
   <si>
-    <t>2016/7/18
-汤欣荣</t>
-  </si>
-  <si>
-    <t>orderList()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-我的订单打开速度过慢</t>
-  </si>
-  <si>
-    <t>我的订单</t>
-  </si>
-  <si>
-    <t>禅道ID：009</t>
-  </si>
-  <si>
-    <t>MyOrderController</t>
-  </si>
-  <si>
-    <t>getOrderList()/154</t>
-  </si>
-  <si>
-    <t>searchCombineByPage()/297</t>
-  </si>
-  <si>
-    <t>searchCombine()/406</t>
-  </si>
-  <si>
-    <t>\source\page\personal\orderList.jsp</t>
-  </si>
-  <si>
-    <t>begin:71  end:72</t>
-  </si>
-  <si>
-    <t>\source\page\personal\userCenterList.jsp</t>
-  </si>
-  <si>
-    <t>begin:83  end:84</t>
-  </si>
-  <si>
-    <t>\source\page\personal\warnDetail.jsp</t>
-  </si>
-  <si>
-    <t>add begin:242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在订单详情页面增加订单类型、订单起止时间、频率等信息 </t>
-  </si>
-  <si>
-    <t>订单详情</t>
-  </si>
-  <si>
-    <t>禅道ID：005</t>
-  </si>
-  <si>
-    <t>\source\page\personal\warnDoctor.jsp</t>
-  </si>
-  <si>
-    <t>add begin:252</t>
-  </si>
-  <si>
-    <t>\source\page\personal\warnKeyword.jsp</t>
-  </si>
-  <si>
-    <t>add begin:318</t>
-  </si>
-  <si>
-    <t>\source\page\personal\warnUsable.jsp</t>
-  </si>
-  <si>
-    <t>add begin:223</t>
-  </si>
-  <si>
-    <t>\source\page\personal\warnRunDetail.jsp</t>
-  </si>
-  <si>
-    <t>add begin:155</t>
-  </si>
-  <si>
-    <t>2016/7/19
-汤欣荣</t>
-  </si>
-  <si>
-    <t>\source\page\anquanbang\sa_anquanbang.jsp</t>
-  </si>
-  <si>
-    <t>modify:141</t>
-  </si>
-  <si>
-    <t>热点页面地图右边框架建议向右移动，目前有一部分显示不全</t>
-  </si>
-  <si>
-    <t>动态感知地图鼠标浮动</t>
-  </si>
-  <si>
-    <t>禅道ID：021</t>
-  </si>
-  <si>
-    <t>2016/07/21
-张少华</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2016/07/</t>
     </r>
     <r>
@@ -454,7 +356,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>22</t>
     </r>
@@ -464,155 +365,279 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 高小艳</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingController</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>添加购物车</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全性问题
-防止抓包工具篡改参数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingCar()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopBuy()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2016/07/22
 高小艳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>购物车跳转到结算页</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopSettlement()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>购物车结算页提交订单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WafController</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>shoppingWaf()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>waf 添加到购物车</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>waf添加到购物车</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>buyNowWafUI()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf 立即购买跳转结算页</t>
+  </si>
+  <si>
+    <t>waf立即购买跳转到结算页</t>
   </si>
   <si>
     <t>waf立即购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wafOrderBack()</t>
   </si>
   <si>
     <t>立即购买返回waf详情信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>返回修改订单信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>waf 立即购买跳转结算页</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>waf立即购买跳转到结算页</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2016/07/23
 高小艳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>shoppingAPIController</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveWafOrder()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wafOrderBack()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>settlementAPI()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>API立即购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>api立即购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全性问题
-防止抓包工具篡改参数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>saveOrderAPI()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>API结算页提交订单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>api立即购买-结算页提交订单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>shoppingCarAPI()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>API添加到购物车</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/07/24
+张少华</t>
+  </si>
+  <si>
+    <t>addAsset
+checkAssetName
+checkAssetAddress
+checkPhysicalAddress
+checkPurpose
+checkAssetCount</t>
+  </si>
+  <si>
+    <t>个人中心-添加资产：后台参数验证</t>
+  </si>
+  <si>
+    <t>个人中心-添加资产</t>
+  </si>
+  <si>
+    <t>asset.js</t>
+  </si>
+  <si>
+    <t>saveAsset()</t>
+  </si>
+  <si>
+    <t>editAsset</t>
+  </si>
+  <si>
+    <t>个人中心-修改资产：后台参数验证</t>
+  </si>
+  <si>
+    <t>个人中心-修改资产</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>个人中心-删除资产：后台参数验证</t>
+  </si>
+  <si>
+    <t>个人中心-删除资产</t>
+  </si>
+  <si>
+    <t>deleteAsset</t>
+  </si>
+  <si>
+    <t>addWebSite</t>
+  </si>
+  <si>
+    <t>详情页-添加资产：后台参数验证</t>
+  </si>
+  <si>
+    <t>详情页-添加资产</t>
+  </si>
+  <si>
+    <t>addWebSite删除</t>
+  </si>
+  <si>
+    <t>details.js</t>
+  </si>
+  <si>
+    <t>addWafWebSite</t>
+  </si>
+  <si>
+    <t>Waf详情页-添加资产：后台参数验证</t>
+  </si>
+  <si>
+    <t>waf详情页-添加资产</t>
+  </si>
+  <si>
+    <t>wafDetail.js</t>
+  </si>
+  <si>
+    <t>saveWafAsset()</t>
+  </si>
+  <si>
+    <t>editAssetUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">现象：个人中心-修改资产后，
+选择一个包含在执行订单中的资产，可以修改
+</t>
+  </si>
+  <si>
+    <t>2016/7/18
+汤欣荣</t>
+  </si>
+  <si>
+    <t>orderList()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+我的订单打开速度过慢</t>
+  </si>
+  <si>
+    <t>我的订单</t>
+  </si>
+  <si>
+    <t>禅道ID：009</t>
+  </si>
+  <si>
+    <t>MyOrderController</t>
+  </si>
+  <si>
+    <t>getOrderList()/154</t>
+  </si>
+  <si>
+    <t>searchCombineByPage()/297</t>
+  </si>
+  <si>
+    <t>searchCombine()/406</t>
+  </si>
+  <si>
+    <t>\source\page\personal\orderList.jsp</t>
+  </si>
+  <si>
+    <t>begin:71  end:72</t>
+  </si>
+  <si>
+    <t>\source\page\personal\userCenterList.jsp</t>
+  </si>
+  <si>
+    <t>begin:83  end:84</t>
+  </si>
+  <si>
+    <t>\source\page\personal\warnDetail.jsp</t>
+  </si>
+  <si>
+    <t>add begin:242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在订单详情页面增加订单类型、订单起止时间、频率等信息 </t>
+  </si>
+  <si>
+    <t>订单详情</t>
+  </si>
+  <si>
+    <t>禅道ID：005</t>
+  </si>
+  <si>
+    <t>\source\page\personal\warnDoctor.jsp</t>
+  </si>
+  <si>
+    <t>add begin:252</t>
+  </si>
+  <si>
+    <t>\source\page\personal\warnKeyword.jsp</t>
+  </si>
+  <si>
+    <t>add begin:318</t>
+  </si>
+  <si>
+    <t>\source\page\personal\warnUsable.jsp</t>
+  </si>
+  <si>
+    <t>add begin:223</t>
+  </si>
+  <si>
+    <t>\source\page\personal\warnRunDetail.jsp</t>
+  </si>
+  <si>
+    <t>add begin:155</t>
+  </si>
+  <si>
+    <t>2016/7/19
+汤欣荣</t>
+  </si>
+  <si>
+    <t>\source\page\anquanbang\sa_anquanbang.jsp</t>
+  </si>
+  <si>
+    <t>modify:141</t>
+  </si>
+  <si>
+    <t>热点页面地图右边框架建议向右移动，目前有一部分显示不全</t>
+  </si>
+  <si>
+    <t>动态感知地图鼠标浮动</t>
+  </si>
+  <si>
+    <t>禅道ID：021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,10 +660,148 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -647,13 +810,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,12 +831,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39994506668294322"/>
+        <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -727,13 +1082,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,155 +1352,211 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1192,15 +1845,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="34" style="1" customWidth="1"/>
@@ -1211,7 +1866,7 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1">
+    <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1234,8 +1889,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="38" t="s">
+    <row r="2" ht="69.75" customHeight="1" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1244,104 +1899,104 @@
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="36" t="s">
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A3" s="11"/>
+      <c r="B3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="36"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="42"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="39"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="39"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="10" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:7">
+      <c r="A10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1350,135 +2005,135 @@
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" ht="32.1" customHeight="1" spans="1:7">
+      <c r="A11" s="27"/>
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A12" s="27"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="41"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A13" s="27"/>
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="41"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A14" s="27"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="41"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A15" s="27"/>
       <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" ht="27" spans="1:7">
+      <c r="A16" s="27"/>
       <c r="B16" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="54.75" customHeight="1">
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" ht="54.75" customHeight="1" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1">
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -1486,38 +2141,38 @@
         <v>48</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="39" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="27">
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" ht="27" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="39" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="53.25" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" ht="53.25" customHeight="1" spans="1:7">
+      <c r="A20" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1526,19 +2181,19 @@
       <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" ht="44.25" customHeight="1" spans="1:7">
+      <c r="A21" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1547,19 +2202,19 @@
       <c r="C21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" ht="32.25" customHeight="1" spans="1:7">
+      <c r="A22" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1568,19 +2223,19 @@
       <c r="C22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="42" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:7">
+      <c r="A23" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1589,59 +2244,59 @@
       <c r="C23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A24" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" ht="44.25" customHeight="1" spans="1:7">
+      <c r="A25" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" ht="32.25" customHeight="1" spans="1:7">
+      <c r="A26" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1650,19 +2305,19 @@
       <c r="C26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="42" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:7">
+      <c r="A27" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1671,38 +2326,38 @@
       <c r="C27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A28" s="41" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:7">
+      <c r="A29" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1711,341 +2366,551 @@
       <c r="C29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="12" t="s">
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:7">
+      <c r="A30" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="12" t="s">
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:7">
+      <c r="A31" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="12" t="s">
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:7">
+      <c r="A32" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="30" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="25" t="s">
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:7">
+      <c r="A33" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="13" t="s">
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:7">
+      <c r="A34" s="21"/>
+      <c r="B34" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1">
-      <c r="A35" s="12" t="s">
+      <c r="C34" s="40"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:7">
+      <c r="A35" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:7">
+      <c r="A36" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:7">
+      <c r="A37" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:7">
+      <c r="A38" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" ht="30" customHeight="1" spans="1:7">
+      <c r="A39" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:7">
+      <c r="A40" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:7">
+      <c r="A41" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:7">
+      <c r="A42" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:7">
+      <c r="A43" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:7">
+      <c r="A44" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:7">
+      <c r="A45" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="45"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:7">
+      <c r="A46" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="51"/>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="1:7">
+      <c r="A47" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="54"/>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="1:7">
+      <c r="A48" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="9" t="s">
+      <c r="E48" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="51"/>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:7">
+      <c r="A49" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54"/>
+    </row>
+    <row r="50" ht="27" spans="1:7">
+      <c r="A50" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1">
-      <c r="A36" s="12" t="s">
+      <c r="F50" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="51"/>
+    </row>
+    <row r="51" ht="27" spans="1:7">
+      <c r="A51" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="54"/>
+    </row>
+    <row r="52" ht="27" spans="1:7">
+      <c r="A52" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="51"/>
+    </row>
+    <row r="53" ht="27" spans="1:7">
+      <c r="A53" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="56"/>
+    </row>
+    <row r="54" ht="27" spans="1:7">
+      <c r="A54" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="54"/>
+    </row>
+    <row r="55" ht="27" spans="1:7">
+      <c r="A55" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="51"/>
+    </row>
+    <row r="56" ht="27" spans="1:7">
+      <c r="A56" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="54"/>
+    </row>
+    <row r="57" ht="40.5" spans="1:7">
+      <c r="A57" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1">
-      <c r="A38" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1">
-      <c r="A39" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1">
-      <c r="A41" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1">
-      <c r="A45" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1"/>
-    <row r="47" spans="1:7" ht="30" customHeight="1"/>
-    <row r="48" spans="1:7" ht="30" customHeight="1"/>
-    <row r="49" ht="30" customHeight="1"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="57"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="44">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A33:A34"/>
@@ -2056,37 +2921,59 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E9"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G56"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD21"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="$A14:$XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="42.875" style="1" customWidth="1"/>
@@ -2097,7 +2984,7 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1">
+    <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2120,181 +3007,181 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="38" t="s">
-        <v>90</v>
+    <row r="2" ht="69.75" customHeight="1" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="49" t="s">
-        <v>95</v>
+        <v>141</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="50"/>
+        <v>146</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="51"/>
+        <v>147</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="39"/>
+        <v>148</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A6" s="11"/>
       <c r="B6" s="6" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="39"/>
+        <v>150</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" ht="52.9" customHeight="1">
-      <c r="A8" s="40" t="s">
-        <v>90</v>
+        <v>152</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" ht="52.9" customHeight="1" spans="1:7">
+      <c r="A8" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A9" s="41"/>
+        <v>154</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" ht="32.1" customHeight="1" spans="1:7">
+      <c r="A9" s="27"/>
       <c r="B9" s="6" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="41"/>
+        <v>159</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A10" s="27"/>
       <c r="B10" s="6" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="41"/>
+        <v>161</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A11" s="27"/>
       <c r="B11" s="6" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="41"/>
+        <v>163</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A12" s="27"/>
       <c r="B12" s="6" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="54.75" customHeight="1">
+        <v>165</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" ht="54.75" customHeight="1" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>120</v>
+        <v>167</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="8"/>
+        <v>171</v>
+      </c>
+      <c r="G13" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2310,8 +3197,8 @@
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G10:G11"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <t>修改日期/
 修改者</t>
@@ -528,6 +528,25 @@
 </t>
   </si>
   <si>
+    <t>禅道ID:035</t>
+  </si>
+  <si>
+    <t>web_anquanbang.jsp</t>
+  </si>
+  <si>
+    <t>buySefHelpOrder()
+buyWafOrder()</t>
+  </si>
+  <si>
+    <t>网站安全帮页面下对各个服务点击购买，全部进入到WEB漏扫页面，连接跳转错误。</t>
+  </si>
+  <si>
+    <t>网站安全帮页面</t>
+  </si>
+  <si>
+    <t>禅道ID:034</t>
+  </si>
+  <si>
     <t>2016/7/18
 汤欣荣</t>
   </si>
@@ -633,9 +652,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -660,10 +679,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,17 +726,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -713,17 +740,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -736,28 +755,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -782,7 +785,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,14 +820,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -843,7 +862,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,13 +916,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,25 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,121 +1036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,6 +1102,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1094,44 +1122,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,6 +1141,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1162,6 +1172,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,152 +1204,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,7 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1478,29 +1497,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1847,10 +1872,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
@@ -2720,7 +2745,7 @@
       <c r="A47" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="47" t="s">
         <v>119</v>
       </c>
       <c r="C47" s="47" t="s">
@@ -2728,14 +2753,14 @@
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="49"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7">
       <c r="A48" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -2756,7 +2781,7 @@
       <c r="A49" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="47" t="s">
         <v>119</v>
       </c>
       <c r="C49" s="47" t="s">
@@ -2764,14 +2789,14 @@
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="49"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="54"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" ht="27" spans="1:7">
       <c r="A50" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="47" t="s">
@@ -2792,7 +2817,7 @@
       <c r="A51" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="47" t="s">
         <v>119</v>
       </c>
       <c r="C51" s="47" t="s">
@@ -2800,14 +2825,14 @@
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="49"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="54"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" ht="27" spans="1:7">
       <c r="A52" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="47" t="s">
@@ -2836,8 +2861,8 @@
       </c>
       <c r="D53" s="49"/>
       <c r="E53" s="49"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" ht="27" spans="1:7">
       <c r="A54" s="46" t="s">
@@ -2851,14 +2876,14 @@
       </c>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="54"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
     </row>
     <row r="55" ht="27" spans="1:7">
       <c r="A55" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="47" t="s">
@@ -2887,27 +2912,50 @@
       </c>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="54"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
     </row>
     <row r="57" ht="40.5" spans="1:7">
       <c r="A57" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="47"/>
+      <c r="F57" s="56" t="s">
+        <v>140</v>
+      </c>
       <c r="G57" s="57"/>
+    </row>
+    <row r="58" ht="27" spans="1:7">
+      <c r="A58" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3009,32 +3057,32 @@
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G2" s="10"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
@@ -3045,7 +3093,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="17"/>
       <c r="C4" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14"/>
@@ -3056,7 +3104,7 @@
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
       <c r="C5" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
@@ -3066,10 +3114,10 @@
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
       <c r="A6" s="11"/>
       <c r="B6" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
@@ -3079,10 +3127,10 @@
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
@@ -3091,32 +3139,32 @@
     </row>
     <row r="8" ht="52.9" customHeight="1" spans="1:7">
       <c r="A8" s="23" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G8" s="26"/>
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="1:7">
       <c r="A9" s="27"/>
       <c r="B9" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="28"/>
@@ -3126,10 +3174,10 @@
     <row r="10" ht="20.1" customHeight="1" spans="1:7">
       <c r="A10" s="27"/>
       <c r="B10" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="28"/>
@@ -3139,10 +3187,10 @@
     <row r="11" ht="20.1" customHeight="1" spans="1:7">
       <c r="A11" s="27"/>
       <c r="B11" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="28"/>
@@ -3152,10 +3200,10 @@
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
       <c r="A12" s="27"/>
       <c r="B12" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="28"/>
@@ -3164,22 +3212,22 @@
     </row>
     <row r="13" ht="54.75" customHeight="1" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G13" s="26"/>
     </row>

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="07.18-07.24" sheetId="1" r:id="rId1"/>
     <sheet name="汤" sheetId="2" r:id="rId2"/>
+    <sheet name="07.25-07.31" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <t>修改日期/
 修改者</t>
@@ -645,18 +646,43 @@
   <si>
     <t>禅道ID：021</t>
   </si>
+  <si>
+    <t>2016/7/25
+张少华</t>
+  </si>
+  <si>
+    <t>forgetPass.jsp
+updateMobile.jsp
+updatePass.jsp
+login.jsp
+register.jsp
+userBill.jsp</t>
+  </si>
+  <si>
+    <t>统一所有页面的微信二维码的图片</t>
+  </si>
+  <si>
+    <t>微信二维码的图片</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,54 +698,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,35 +734,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -785,15 +759,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,6 +788,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -816,8 +811,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,19 +882,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,7 +930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,19 +942,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,61 +1002,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,31 +1038,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,6 +1131,54 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1126,41 +1200,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1178,24 +1217,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,10 +1233,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,139 +1245,172 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1371,10 +1430,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1389,10 +1448,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1407,10 +1466,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1443,7 +1502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1523,9 +1582,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1874,1088 +1930,1088 @@
   <sheetPr/>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="34" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="39" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="12" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="11"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="22"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="16"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="22"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="27"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="22"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" ht="27" spans="1:7">
-      <c r="A16" s="27"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="26"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="26"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" ht="33" customHeight="1" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="26"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" ht="27" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="26"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" ht="53.25" customHeight="1" spans="1:7">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="26"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:7">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="26"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="26"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="26"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:7">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="26"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="30" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="26"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:7">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="26"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:7">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="26"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:7">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="26"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:7">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="26"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="26"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="21"/>
-      <c r="B34" s="40" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="26"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:7">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="43" t="s">
+      <c r="D35" s="51"/>
+      <c r="E35" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="26"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:7">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="26"/>
+      <c r="G36" s="37"/>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:7">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="26"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:7">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="26"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:7">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="26"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:7">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="26"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:7">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="26"/>
+      <c r="G41" s="37"/>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:7">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="26"/>
+      <c r="G42" s="37"/>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:7">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="26"/>
+      <c r="G43" s="37"/>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:7">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="26"/>
+      <c r="G44" s="37"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:7">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="45"/>
+      <c r="G45" s="56"/>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:7">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="49" t="s">
+      <c r="D46" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="51"/>
+      <c r="G46" s="62"/>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:7">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="51"/>
+      <c r="G48" s="62"/>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:7">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
     </row>
     <row r="50" ht="27" spans="1:7">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E50" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="51"/>
+      <c r="G50" s="62"/>
     </row>
     <row r="51" ht="27" spans="1:7">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
     </row>
     <row r="52" ht="27" spans="1:7">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="50" t="s">
+      <c r="F52" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="51"/>
+      <c r="G52" s="62"/>
     </row>
     <row r="53" ht="27" spans="1:7">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" ht="27" spans="1:7">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="64"/>
     </row>
     <row r="55" ht="27" spans="1:7">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="50" t="s">
+      <c r="F55" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="51"/>
+      <c r="G55" s="62"/>
     </row>
     <row r="56" ht="27" spans="1:7">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
     </row>
     <row r="57" ht="40.5" spans="1:7">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="57"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" ht="27" spans="1:7">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="59" t="s">
         <v>144</v>
       </c>
       <c r="F58" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="59"/>
+      <c r="G58" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3024,212 +3080,212 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="42.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="39" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="12" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="11"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="11"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" ht="52.9" customHeight="1" spans="1:7">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="27"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="10"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="22"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="27"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3249,4 +3305,132 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="40.5" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="81" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="07.18-07.24" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="194">
   <si>
     <t>修改日期/
 修改者</t>
@@ -66,7 +66,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Salt</t>
     </r>
@@ -664,18 +664,61 @@
   <si>
     <t>微信二维码的图片</t>
   </si>
+  <si>
+    <t>2016/7/25
+高小艳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserController</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveUserDataBate()</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存个人资料，增加一个字段：邮箱地址</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>register.jsp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册：增加一个字段：邮箱地址</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>userData.jsp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料，增加一个字段：邮箱地址</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal.js</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>regist.js</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,150 +748,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -858,7 +757,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -866,8 +765,37 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,198 +804,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1127,271 +869,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1403,13 +903,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1430,214 +927,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1926,1397 +1421,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="34" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="39" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="34" style="11" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="39" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="11" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="39" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="22"/>
-      <c r="B3" s="41" t="s">
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="22"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="22"/>
-      <c r="B5" s="17" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="38"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="38"/>
+      <c r="B5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="22"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="17" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="38"/>
+      <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="B8" s="17" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A9" s="22"/>
-      <c r="B9" s="48" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="38"/>
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="34" t="s">
+      <c r="D9" s="43"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="A10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A11" s="38"/>
-      <c r="B11" s="17" t="s">
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A11" s="40"/>
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="38"/>
-      <c r="B12" s="17" t="s">
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="40"/>
+      <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A13" s="38"/>
-      <c r="B13" s="17" t="s">
+      <c r="F12" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="60"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="40"/>
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A14" s="38"/>
-      <c r="B14" s="17" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="62"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="40"/>
+      <c r="B14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A15" s="38"/>
-      <c r="B15" s="17" t="s">
+      <c r="F14" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="40"/>
+      <c r="B15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" ht="27" spans="1:7">
-      <c r="A16" s="38"/>
-      <c r="B16" s="17" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="62"/>
+    </row>
+    <row r="16" spans="1:7" ht="27">
+      <c r="A16" s="40"/>
+      <c r="B16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="16" t="s">
+      <c r="F16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" ht="33" customHeight="1" spans="1:7">
-      <c r="A18" s="16" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="33" customHeight="1">
+      <c r="A18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="41" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" ht="27" spans="1:7">
-      <c r="A19" s="16" t="s">
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="27">
+      <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" ht="53.25" customHeight="1" spans="1:7">
-      <c r="A20" s="52" t="s">
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="53.25" customHeight="1">
+      <c r="A20" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A21" s="52" t="s">
+      <c r="F20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A21" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A22" s="52" t="s">
+      <c r="F21" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A22" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" ht="42" customHeight="1" spans="1:7">
-      <c r="A23" s="52" t="s">
+      <c r="F22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1">
+      <c r="A23" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A24" s="52" t="s">
+      <c r="F23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A24" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="41" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A25" s="52" t="s">
+      <c r="F24" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A25" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A26" s="52" t="s">
+      <c r="F25" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A26" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="27" ht="42" customHeight="1" spans="1:7">
-      <c r="A27" s="52" t="s">
+      <c r="F26" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1">
+      <c r="A27" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A28" s="52" t="s">
+      <c r="F27" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A28" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" ht="30" customHeight="1" spans="1:7">
-      <c r="A29" s="52" t="s">
+      <c r="F28" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1">
+      <c r="A29" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="37"/>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="1:7">
-      <c r="A30" s="52" t="s">
+      <c r="F29" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="41" t="s">
+      <c r="C30" s="16"/>
+      <c r="D30" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" ht="30" customHeight="1" spans="1:7">
-      <c r="A31" s="52" t="s">
+      <c r="F30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1">
+      <c r="A31" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="41" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="1:7">
-      <c r="A32" s="52" t="s">
+      <c r="F31" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1">
+      <c r="A32" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="41" t="s">
+      <c r="C32" s="16"/>
+      <c r="D32" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="20" t="s">
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="32"/>
-      <c r="B34" s="51" t="s">
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1">
+      <c r="A34" s="42"/>
+      <c r="B34" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="37"/>
-    </row>
-    <row r="35" ht="30" customHeight="1" spans="1:7">
-      <c r="A35" s="52" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1">
+      <c r="A35" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="54" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" ht="30" customHeight="1" spans="1:7">
-      <c r="A36" s="52" t="s">
+      <c r="F35" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" ht="30" customHeight="1" spans="1:7">
-      <c r="A37" s="52" t="s">
+      <c r="F36" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1">
+      <c r="A37" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" ht="30" customHeight="1" spans="1:7">
-      <c r="A38" s="52" t="s">
+      <c r="F37" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1">
+      <c r="A38" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" ht="30" customHeight="1" spans="1:7">
-      <c r="A39" s="52" t="s">
+      <c r="F38" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="1:7">
-      <c r="A40" s="52" t="s">
+      <c r="F39" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1">
+      <c r="A40" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" ht="30" customHeight="1" spans="1:7">
-      <c r="A41" s="52" t="s">
+      <c r="F40" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1">
+      <c r="A41" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" ht="30" customHeight="1" spans="1:7">
-      <c r="A42" s="52" t="s">
+      <c r="F41" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1">
+      <c r="A42" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="1:7">
-      <c r="A43" s="52" t="s">
+      <c r="F42" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1">
+      <c r="A43" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="37"/>
-    </row>
-    <row r="44" ht="30" customHeight="1" spans="1:7">
-      <c r="A44" s="52" t="s">
+      <c r="F43" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1">
+      <c r="A44" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" ht="30" customHeight="1" spans="1:7">
-      <c r="A45" s="55" t="s">
+      <c r="F44" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1">
+      <c r="A45" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="56"/>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="1:7">
-      <c r="A46" s="57" t="s">
+      <c r="F45" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="29"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1">
+      <c r="A46" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D46" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="62"/>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="1:7">
-      <c r="A47" s="57" t="s">
+      <c r="F46" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="63"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1">
+      <c r="A47" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="63"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="64"/>
     </row>
-    <row r="48" ht="30" customHeight="1" spans="1:7">
-      <c r="A48" s="57" t="s">
+    <row r="48" spans="1:7" ht="30" customHeight="1">
+      <c r="A48" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="60" t="s">
+      <c r="D48" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="62"/>
-    </row>
-    <row r="49" ht="30" customHeight="1" spans="1:7">
-      <c r="A49" s="57" t="s">
+      <c r="F48" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="63"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1">
+      <c r="A49" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="63"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="64"/>
     </row>
-    <row r="50" ht="27" spans="1:7">
-      <c r="A50" s="57" t="s">
+    <row r="50" spans="1:7" ht="27">
+      <c r="A50" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="60" t="s">
+      <c r="D50" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="62"/>
-    </row>
-    <row r="51" ht="27" spans="1:7">
-      <c r="A51" s="57" t="s">
+      <c r="F50" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="63"/>
+    </row>
+    <row r="51" spans="1:7" ht="27">
+      <c r="A51" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="63"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="64"/>
     </row>
-    <row r="52" ht="27" spans="1:7">
-      <c r="A52" s="57" t="s">
+    <row r="52" spans="1:7" ht="27">
+      <c r="A52" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="60" t="s">
+      <c r="D52" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="62"/>
-    </row>
-    <row r="53" ht="27" spans="1:7">
-      <c r="A53" s="57" t="s">
+      <c r="F52" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="63"/>
+    </row>
+    <row r="53" spans="1:7" ht="27">
+      <c r="A53" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
-    </row>
-    <row r="54" ht="27" spans="1:7">
-      <c r="A54" s="57" t="s">
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="65"/>
+    </row>
+    <row r="54" spans="1:7" ht="27">
+      <c r="A54" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="63"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="64"/>
     </row>
-    <row r="55" ht="27" spans="1:7">
-      <c r="A55" s="57" t="s">
+    <row r="55" spans="1:7" ht="27">
+      <c r="A55" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="D55" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G55" s="62"/>
-    </row>
-    <row r="56" ht="27" spans="1:7">
-      <c r="A56" s="57" t="s">
+      <c r="F55" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="63"/>
+    </row>
+    <row r="56" spans="1:7" ht="27">
+      <c r="A56" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="63"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="64"/>
     </row>
-    <row r="57" ht="40.5" spans="1:7">
-      <c r="A57" s="57" t="s">
+    <row r="57" spans="1:7" ht="40.5">
+      <c r="A57" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="61" t="s">
+      <c r="D57" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="61" t="s">
+      <c r="E57" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="67" t="s">
+      <c r="F57" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="68"/>
-    </row>
-    <row r="58" ht="27" spans="1:7">
-      <c r="A58" s="57" t="s">
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="1:7" ht="27">
+      <c r="A58" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="59" t="s">
+      <c r="E58" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="58" t="s">
+      <c r="F58" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="69"/>
+      <c r="G58" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G55:G56"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="$A14:$XFD21"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="42.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="39" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="39" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="11" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="39" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23" t="s">
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="22"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="17" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="38"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="22"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="17" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="61"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="38"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="22"/>
-      <c r="B6" s="17" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="17" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="38"/>
+      <c r="B7" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" ht="52.9" customHeight="1" spans="1:7">
-      <c r="A8" s="34" t="s">
+      <c r="D7" s="71"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="62"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.9" customHeight="1">
+      <c r="A8" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A9" s="38"/>
-      <c r="B9" s="17" t="s">
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="38"/>
-      <c r="B10" s="17" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A11" s="38"/>
-      <c r="B11" s="17" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="60"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="40"/>
+      <c r="B11" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="38"/>
-      <c r="B12" s="17" t="s">
+      <c r="D11" s="67"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="62"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="40"/>
+      <c r="B12" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A13" s="16" t="s">
+      <c r="D12" s="67"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="37"/>
+      <c r="G13" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D12"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D12"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -3326,7 +2816,7 @@
     <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:7">
+    <row r="1" spans="1:7" ht="40.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +2839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:7">
+    <row r="2" spans="1:7" ht="81">
       <c r="A2" s="3" t="s">
         <v>178</v>
       </c>
@@ -3366,50 +2856,84 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="78"/>
+      <c r="G3" s="81"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="81"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" s="82"/>
+      <c r="B5" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" s="82"/>
+      <c r="B6" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" s="83"/>
+      <c r="B7" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
@@ -3422,7 +2946,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="5"/>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
@@ -3430,7 +2954,10 @@
       <c r="G9" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="07.18-07.24" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
   <si>
     <t>修改日期/
 修改者</t>
@@ -66,7 +66,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Salt</t>
     </r>
@@ -667,60 +667,75 @@
   <si>
     <t>2016/7/25
 高小艳</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserController</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveUserDataBate()</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>保存个人资料，增加一个字段：邮箱地址</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>个人资料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>register.jsp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>用户注册：增加一个字段：邮箱地址</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>用户注册</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>userData.jsp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>个人资料，增加一个字段：邮箱地址</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>personal.js</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>regist.js</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>apiDetails.jsp
+apiDetails2.jsp
+apiDetails3.jsp
+apiDetails4.jsp
+apiDetails5.jsp
+vulnScanDetails.jsp
+wafDetails.jsp</t>
+  </si>
+  <si>
+    <t>所有服务详情页面的标题都需要修改
+WEB漏洞监测服务订单 修改为
+WEB漏洞监测服务商品信息</t>
+  </si>
+  <si>
+    <t>所有服务详情页面</t>
+  </si>
+  <si>
+    <t>禅道ID：030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -741,10 +756,154 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,7 +916,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -765,37 +924,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,12 +934,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39991454817346722"/>
+        <fgColor theme="6" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -869,95 +1185,427 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -975,164 +1623,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1421,1392 +1993,1397 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="34" style="11" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="39" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="34" style="17" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="17" customWidth="1"/>
+    <col min="4" max="4" width="39" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="17" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="37" t="s">
+    <row r="2" ht="69.75" customHeight="1" spans="1:7">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="60"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="43" t="s">
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A3" s="27"/>
+      <c r="B3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="61"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="62"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="44" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A4" s="27"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A5" s="27"/>
+      <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="60"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="16" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A6" s="27"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="52"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="61"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="16" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A7" s="27"/>
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="52"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="61"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="16" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A8" s="27"/>
+      <c r="B8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="43"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="52"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="61"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="22" t="s">
+      <c r="F8" s="48"/>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A9" s="27"/>
+      <c r="B9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="62"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="D9" s="46"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:7">
       <c r="A10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="16" t="s">
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" ht="32.1" customHeight="1" spans="1:7">
+      <c r="A11" s="43"/>
+      <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="16" t="s">
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A12" s="43"/>
+      <c r="B12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="60"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="16" t="s">
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A13" s="43"/>
+      <c r="B13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="62"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="16" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="38"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A14" s="43"/>
+      <c r="B14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="60"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="16" t="s">
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A15" s="43"/>
+      <c r="B15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="62"/>
-    </row>
-    <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="40"/>
-      <c r="B16" s="16" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" ht="27" spans="1:7">
+      <c r="A16" s="43"/>
+      <c r="B16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="1:7">
+      <c r="A18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" ht="27">
-      <c r="A19" s="15" t="s">
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" ht="27" spans="1:7">
+      <c r="A19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" ht="53.25" customHeight="1">
-      <c r="A20" s="25" t="s">
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" ht="53.25" customHeight="1" spans="1:7">
+      <c r="A20" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" ht="44.25" customHeight="1" spans="1:7">
+      <c r="A21" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" ht="32.25" customHeight="1" spans="1:7">
+      <c r="A22" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" ht="42" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:7">
+      <c r="A23" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A24" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" ht="44.25" customHeight="1" spans="1:7">
+      <c r="A25" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" ht="32.25" customHeight="1" spans="1:7">
+      <c r="A26" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" ht="42" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:7">
+      <c r="A27" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A28" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="25" t="s">
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:7">
+      <c r="A29" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="25" t="s">
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:7">
+      <c r="A30" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="G30" s="42"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:7">
+      <c r="A31" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:7">
+      <c r="A32" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="21" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="41" t="s">
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:7">
+      <c r="A33" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="20"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="42"/>
-      <c r="B34" s="24" t="s">
+      <c r="G33" s="42"/>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:7">
+      <c r="A34" s="37"/>
+      <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1">
-      <c r="A35" s="25" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="42"/>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:7">
+      <c r="A35" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="27" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1">
-      <c r="A36" s="25" t="s">
+      <c r="G35" s="42"/>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:7">
+      <c r="A36" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1">
-      <c r="A37" s="25" t="s">
+      <c r="G36" s="42"/>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:7">
+      <c r="A37" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1">
-      <c r="A38" s="25" t="s">
+      <c r="G37" s="42"/>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:7">
+      <c r="A38" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1">
-      <c r="A39" s="25" t="s">
+      <c r="G38" s="42"/>
+    </row>
+    <row r="39" ht="30" customHeight="1" spans="1:7">
+      <c r="A39" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1">
-      <c r="A40" s="25" t="s">
+      <c r="G39" s="42"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:7">
+      <c r="A40" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1">
-      <c r="A41" s="25" t="s">
+      <c r="G40" s="42"/>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:7">
+      <c r="A41" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1">
-      <c r="A42" s="25" t="s">
+      <c r="G41" s="42"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:7">
+      <c r="A42" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1">
-      <c r="A43" s="25" t="s">
+      <c r="G42" s="42"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:7">
+      <c r="A43" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1">
-      <c r="A44" s="25" t="s">
+      <c r="G43" s="42"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:7">
+      <c r="A44" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1">
-      <c r="A45" s="28" t="s">
+      <c r="G44" s="42"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:7">
+      <c r="A45" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="29"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1">
-      <c r="A46" s="30" t="s">
+      <c r="G45" s="59"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:7">
+      <c r="A46" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="57" t="s">
+      <c r="F46" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="63"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1">
-      <c r="A47" s="30" t="s">
+      <c r="G46" s="65"/>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="1:7">
+      <c r="A47" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="64"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="30" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="1:7">
+      <c r="A48" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="57" t="s">
+      <c r="F48" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="63"/>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1">
-      <c r="A49" s="30" t="s">
+      <c r="G48" s="65"/>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:7">
+      <c r="A49" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="64"/>
-    </row>
-    <row r="50" spans="1:7" ht="27">
-      <c r="A50" s="30" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
+    </row>
+    <row r="50" ht="27" spans="1:7">
+      <c r="A50" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="57" t="s">
+      <c r="F50" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="63"/>
-    </row>
-    <row r="51" spans="1:7" ht="27">
-      <c r="A51" s="30" t="s">
+      <c r="G50" s="65"/>
+    </row>
+    <row r="51" ht="27" spans="1:7">
+      <c r="A51" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="64"/>
-    </row>
-    <row r="52" spans="1:7" ht="27">
-      <c r="A52" s="30" t="s">
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
+    </row>
+    <row r="52" ht="27" spans="1:7">
+      <c r="A52" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="47" t="s">
+      <c r="E52" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="63"/>
-    </row>
-    <row r="53" spans="1:7" ht="27">
-      <c r="A53" s="30" t="s">
+      <c r="G52" s="65"/>
+    </row>
+    <row r="53" ht="27" spans="1:7">
+      <c r="A53" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="65"/>
-    </row>
-    <row r="54" spans="1:7" ht="27">
-      <c r="A54" s="30" t="s">
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="69"/>
+    </row>
+    <row r="54" ht="27" spans="1:7">
+      <c r="A54" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="64"/>
-    </row>
-    <row r="55" spans="1:7" ht="27">
-      <c r="A55" s="30" t="s">
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="67"/>
+    </row>
+    <row r="55" ht="27" spans="1:7">
+      <c r="A55" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="57" t="s">
+      <c r="F55" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="63"/>
-    </row>
-    <row r="56" spans="1:7" ht="27">
-      <c r="A56" s="30" t="s">
+      <c r="G55" s="65"/>
+    </row>
+    <row r="56" ht="27" spans="1:7">
+      <c r="A56" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="64"/>
-    </row>
-    <row r="57" spans="1:7" ht="40.5">
-      <c r="A57" s="30" t="s">
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="67"/>
+    </row>
+    <row r="57" ht="40.5" spans="1:7">
+      <c r="A57" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="34" t="s">
+      <c r="F57" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="35"/>
-    </row>
-    <row r="58" spans="1:7" ht="27">
-      <c r="A58" s="30" t="s">
+      <c r="G57" s="71"/>
+    </row>
+    <row r="58" ht="27" spans="1:7">
+      <c r="A58" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="31" t="s">
+      <c r="F58" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="36"/>
+      <c r="G58" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G56"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD21"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="$A14:$XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="42.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="39" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="39" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="17" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="37" t="s">
+    <row r="2" ht="69.75" customHeight="1" spans="1:7">
+      <c r="A2" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="60"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="66" t="s">
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="61"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="16" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A4" s="27"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="61"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="16" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A5" s="27"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="61"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="16" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A6" s="27"/>
+      <c r="B6" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="61"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="16" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A7" s="27"/>
+      <c r="B7" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="62"/>
-    </row>
-    <row r="8" spans="1:7" ht="52.9" customHeight="1">
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" ht="52.9" customHeight="1" spans="1:7">
       <c r="A8" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="16" t="s">
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" ht="32.1" customHeight="1" spans="1:7">
+      <c r="A9" s="43"/>
+      <c r="B9" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="16" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A10" s="43"/>
+      <c r="B10" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="60"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="16" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A11" s="43"/>
+      <c r="B11" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="62"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="16" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A12" s="43"/>
+      <c r="B12" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A13" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D12"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D12"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -2816,7 +3393,7 @@
     <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5">
+    <row r="1" ht="40.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2839,7 +3416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="81">
+    <row r="2" ht="81" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>178</v>
       </c>
@@ -2856,99 +3433,109 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="77" t="s">
+    <row r="3" ht="30" customHeight="1" spans="1:7">
+      <c r="A3" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="E3" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:7">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="81"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="78" t="s">
+      <c r="E4" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="81"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="81" t="s">
+      <c r="E5" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:7">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="78" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:7">
+      <c r="A7" s="15"/>
+      <c r="B7" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="82"/>
-      <c r="B6" s="81" t="s">
+      <c r="E7" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" ht="94.5" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="83"/>
-      <c r="B7" s="79" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -2957,7 +3544,7 @@
   <mergeCells count="1">
     <mergeCell ref="A3:A7"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
   <si>
     <t>修改日期/
 修改者</t>
@@ -715,18 +715,30 @@
   <si>
     <t>禅道ID：030</t>
   </si>
+  <si>
+    <t>center_index.jsp</t>
+  </si>
+  <si>
+    <t>个人中心订单列表表头的“服务起始时间”应改为“服务起止时间”</t>
+  </si>
+  <si>
+    <t>个人中心订单页面</t>
+  </si>
+  <si>
+    <t>禅道ID：036</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,65 +755,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,6 +770,29 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -823,9 +800,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,9 +829,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,13 +861,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -877,24 +868,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,6 +877,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,7 +931,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,43 +1003,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,19 +1063,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,31 +1087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,67 +1099,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,6 +1187,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1210,28 +1216,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,6 +1236,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,18 +1266,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1288,118 +1279,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1408,32 +1393,38 @@
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1461,25 +1452,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2006,584 +1985,584 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="34" style="17" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="17" customWidth="1"/>
-    <col min="4" max="4" width="39" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="34" style="13" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39" style="14" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="13" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="27"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="27"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="38"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="27"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="26"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="27"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="32"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="32"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="27"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="32"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="38"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="42"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A11" s="43"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="42"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="43"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="26"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A13" s="43"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="38"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A14" s="43"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A15" s="43"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" ht="27" spans="1:7">
-      <c r="A16" s="43"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="42"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" ht="33" customHeight="1" spans="1:7">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="46" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="42"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" ht="27" spans="1:7">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="46" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="42"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" ht="53.25" customHeight="1" spans="1:7">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="42"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="42"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" ht="42" customHeight="1" spans="1:7">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="42"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="46" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="42"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="42"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" ht="42" customHeight="1" spans="1:7">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="42"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="42"/>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:7">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:7">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="46" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="42"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:7">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="46" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="42"/>
+      <c r="G31" s="38"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:7">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="46" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="42"/>
+      <c r="G32" s="38"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2592,30 +2571,30 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="42"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="37"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="42"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="38"/>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:7">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="52" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2625,460 +2604,460 @@
         <v>88</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="42"/>
+      <c r="G35" s="38"/>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:7">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="42"/>
+      <c r="G36" s="38"/>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:7">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="42"/>
+      <c r="G37" s="38"/>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:7">
-      <c r="A38" s="56" t="s">
+      <c r="A38" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="42"/>
+      <c r="G38" s="38"/>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:7">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="42"/>
+      <c r="G39" s="38"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:7">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="42"/>
+      <c r="G40" s="38"/>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:7">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="42"/>
+      <c r="G41" s="38"/>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:7">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="42"/>
+      <c r="G42" s="38"/>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:7">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="42"/>
+      <c r="G43" s="38"/>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:7">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="42"/>
+      <c r="G44" s="38"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:7">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="59"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:7">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="63" t="s">
+      <c r="E46" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="64" t="s">
+      <c r="F46" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="65"/>
+      <c r="G46" s="61"/>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:7">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="63" t="s">
+      <c r="E48" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="F48" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="65"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:7">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="50" ht="27" spans="1:7">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="D50" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="63" t="s">
+      <c r="E50" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="64" t="s">
+      <c r="F50" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="65"/>
+      <c r="G50" s="61"/>
     </row>
     <row r="51" ht="27" spans="1:7">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
     </row>
     <row r="52" ht="27" spans="1:7">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="61" t="s">
+      <c r="C52" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="63" t="s">
+      <c r="D52" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="63" t="s">
+      <c r="E52" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="64" t="s">
+      <c r="F52" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="65"/>
+      <c r="G52" s="61"/>
     </row>
     <row r="53" ht="27" spans="1:7">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="69"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="65"/>
     </row>
     <row r="54" ht="27" spans="1:7">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
     </row>
     <row r="55" ht="27" spans="1:7">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="63" t="s">
+      <c r="D55" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="63" t="s">
+      <c r="E55" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="64" t="s">
+      <c r="F55" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="65"/>
+      <c r="G55" s="61"/>
     </row>
     <row r="56" ht="27" spans="1:7">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="67"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
     </row>
     <row r="57" ht="40.5" spans="1:7">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="64" t="s">
+      <c r="E57" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="70" t="s">
+      <c r="F57" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="71"/>
+      <c r="G57" s="67"/>
     </row>
     <row r="58" ht="27" spans="1:7">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="62" t="s">
+      <c r="D58" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="62" t="s">
+      <c r="E58" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="61" t="s">
+      <c r="F58" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="72"/>
+      <c r="G58" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3147,212 +3126,212 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="42.875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="39" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39" style="14" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="13" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="27"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="27"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="22" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="27"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" ht="52.9" customHeight="1" spans="1:7">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A9" s="43"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="42"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="43"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="26"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A11" s="43"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="43"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="42"/>
+      <c r="G13" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3377,10 +3356,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3437,80 +3416,80 @@
       <c r="A3" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="13"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:7">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" ht="94.5" spans="1:7">
       <c r="A8" s="3" t="s">
@@ -3531,14 +3510,33 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="16"/>
+    <row r="9" ht="27" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="07.18-07.24" sheetId="1" r:id="rId1"/>
     <sheet name="汤" sheetId="2" r:id="rId2"/>
     <sheet name="07.25-07.31" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="209">
   <si>
     <t>修改日期/
 修改者</t>
@@ -66,7 +66,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Salt</t>
     </r>
@@ -727,18 +727,49 @@
   <si>
     <t>禅道ID：036</t>
   </si>
+  <si>
+    <t>2016/7/25
+高小艳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderMgrController</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteOrder()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单删除权限控制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingController</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>delShopCar()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除购物车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,150 +785,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -907,7 +794,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -915,8 +802,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,198 +818,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1176,255 +883,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1452,6 +917,198 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1461,229 +1118,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1972,597 +1423,595 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="34" style="13" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="34" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="39" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="9" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="39" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="23"/>
-      <c r="B3" s="42" t="s">
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="23"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="23"/>
-      <c r="B5" s="18" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="58"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="23"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="48"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="18" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="57"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="18" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="48"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="49" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="57"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:7">
+      <c r="D9" s="39"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="58"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="38"/>
-    </row>
-    <row r="11" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A11" s="39"/>
-      <c r="B11" s="18" t="s">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="39"/>
-      <c r="B12" s="18" t="s">
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="36"/>
+      <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A13" s="39"/>
-      <c r="B13" s="18" t="s">
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="34"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A14" s="39"/>
-      <c r="B14" s="18" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="58"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="36"/>
+      <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A15" s="39"/>
-      <c r="B15" s="18" t="s">
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" ht="27" spans="1:7">
-      <c r="A16" s="39"/>
-      <c r="B16" s="18" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="58"/>
+    </row>
+    <row r="16" spans="1:7" ht="27">
+      <c r="A16" s="36"/>
+      <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="17" t="s">
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" ht="33" customHeight="1" spans="1:7">
-      <c r="A18" s="17" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="33" customHeight="1">
+      <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="42" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" ht="27" spans="1:7">
-      <c r="A19" s="17" t="s">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="27">
+      <c r="A19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" ht="53.25" customHeight="1" spans="1:7">
-      <c r="A20" s="52" t="s">
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="53.25" customHeight="1">
+      <c r="A20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A21" s="52" t="s">
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A22" s="52" t="s">
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A22" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" ht="42" customHeight="1" spans="1:7">
-      <c r="A23" s="52" t="s">
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1">
+      <c r="A23" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A24" s="52" t="s">
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A24" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="42" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A25" s="52" t="s">
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A25" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A26" s="52" t="s">
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A26" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" ht="42" customHeight="1" spans="1:7">
-      <c r="A27" s="52" t="s">
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1">
+      <c r="A27" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A28" s="52" t="s">
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A28" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="42" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" ht="30" customHeight="1" spans="1:7">
-      <c r="A29" s="52" t="s">
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1">
+      <c r="A29" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="1:7">
-      <c r="A30" s="52" t="s">
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="42" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="F30" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" ht="30" customHeight="1" spans="1:7">
-      <c r="A31" s="52" t="s">
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1">
+      <c r="A31" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="42" t="s">
+      <c r="C31" s="14"/>
+      <c r="D31" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="38"/>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="1:7">
-      <c r="A32" s="52" t="s">
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1">
+      <c r="A32" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="42" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="38"/>
-    </row>
-    <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="21" t="s">
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" s="37" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2571,30 +2020,30 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="33"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1">
+      <c r="A34" s="38"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="38"/>
-    </row>
-    <row r="35" ht="30" customHeight="1" spans="1:7">
-      <c r="A35" s="52" t="s">
+      <c r="D34" s="38"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1">
+      <c r="A35" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2604,765 +2053,762 @@
         <v>88</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" ht="30" customHeight="1" spans="1:7">
-      <c r="A36" s="52" t="s">
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" ht="30" customHeight="1" spans="1:7">
-      <c r="A37" s="52" t="s">
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1">
+      <c r="A37" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F37" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" ht="30" customHeight="1" spans="1:7">
-      <c r="A38" s="52" t="s">
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1">
+      <c r="A38" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" ht="30" customHeight="1" spans="1:7">
-      <c r="A39" s="52" t="s">
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="1:7">
-      <c r="A40" s="52" t="s">
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1">
+      <c r="A40" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="38"/>
-    </row>
-    <row r="41" ht="30" customHeight="1" spans="1:7">
-      <c r="A41" s="52" t="s">
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1">
+      <c r="A41" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="42" ht="30" customHeight="1" spans="1:7">
-      <c r="A42" s="52" t="s">
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1">
+      <c r="A42" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="42" t="s">
+      <c r="F42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="38"/>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="1:7">
-      <c r="A43" s="52" t="s">
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1">
+      <c r="A43" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="42" t="s">
+      <c r="F43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="38"/>
-    </row>
-    <row r="44" ht="30" customHeight="1" spans="1:7">
-      <c r="A44" s="52" t="s">
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1">
+      <c r="A44" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="F44" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="38"/>
-    </row>
-    <row r="45" ht="30" customHeight="1" spans="1:7">
-      <c r="A45" s="54" t="s">
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1">
+      <c r="A45" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="55"/>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="1:7">
-      <c r="A46" s="56" t="s">
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1">
+      <c r="A46" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="61"/>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="1:7">
-      <c r="A47" s="56" t="s">
+      <c r="G46" s="59"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1">
+      <c r="A47" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
-    </row>
-    <row r="48" ht="30" customHeight="1" spans="1:7">
-      <c r="A48" s="56" t="s">
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="60"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1">
+      <c r="A48" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="61"/>
-    </row>
-    <row r="49" ht="30" customHeight="1" spans="1:7">
-      <c r="A49" s="56" t="s">
+      <c r="G48" s="59"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1">
+      <c r="A49" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
-    </row>
-    <row r="50" ht="27" spans="1:7">
-      <c r="A50" s="56" t="s">
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="60"/>
+    </row>
+    <row r="50" spans="1:7" ht="27">
+      <c r="A50" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E50" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="60" t="s">
+      <c r="F50" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="61"/>
-    </row>
-    <row r="51" ht="27" spans="1:7">
-      <c r="A51" s="56" t="s">
+      <c r="G50" s="59"/>
+    </row>
+    <row r="51" spans="1:7" ht="27">
+      <c r="A51" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
-    </row>
-    <row r="52" ht="27" spans="1:7">
-      <c r="A52" s="56" t="s">
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="60"/>
+    </row>
+    <row r="52" spans="1:7" ht="27">
+      <c r="A52" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="59" t="s">
+      <c r="E52" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="60" t="s">
+      <c r="F52" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="61"/>
-    </row>
-    <row r="53" ht="27" spans="1:7">
-      <c r="A53" s="56" t="s">
+      <c r="G52" s="59"/>
+    </row>
+    <row r="53" spans="1:7" ht="27">
+      <c r="A53" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="65"/>
-    </row>
-    <row r="54" ht="27" spans="1:7">
-      <c r="A54" s="56" t="s">
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="61"/>
+    </row>
+    <row r="54" spans="1:7" ht="27">
+      <c r="A54" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="57" t="s">
+      <c r="C54" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-    </row>
-    <row r="55" ht="27" spans="1:7">
-      <c r="A55" s="56" t="s">
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="60"/>
+    </row>
+    <row r="55" spans="1:7" ht="27">
+      <c r="A55" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="59" t="s">
+      <c r="E55" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="61"/>
-    </row>
-    <row r="56" ht="27" spans="1:7">
-      <c r="A56" s="56" t="s">
+      <c r="G55" s="59"/>
+    </row>
+    <row r="56" spans="1:7" ht="27">
+      <c r="A56" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-    </row>
-    <row r="57" ht="40.5" spans="1:7">
-      <c r="A57" s="56" t="s">
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="60"/>
+    </row>
+    <row r="57" spans="1:7" ht="40.5">
+      <c r="A57" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="D57" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="60" t="s">
+      <c r="E57" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="66" t="s">
+      <c r="F57" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="67"/>
-    </row>
-    <row r="58" ht="27" spans="1:7">
-      <c r="A58" s="56" t="s">
+      <c r="G57" s="31"/>
+    </row>
+    <row r="58" spans="1:7" ht="27">
+      <c r="A58" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="D58" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="58" t="s">
+      <c r="E58" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="57" t="s">
+      <c r="F58" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="68"/>
+      <c r="G58" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G55:G56"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="$A14:$XFD21"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="42.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="39" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.625" style="9" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="39" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A2" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="23"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="18" t="s">
+      <c r="D3" s="66"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="23"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="18" t="s">
+      <c r="D4" s="66"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="57"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="23"/>
-      <c r="B6" s="18" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="18" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="57"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" ht="52.9" customHeight="1" spans="1:7">
+      <c r="D7" s="67"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.9" customHeight="1">
       <c r="A8" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A9" s="39"/>
-      <c r="B9" s="18" t="s">
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="39"/>
-      <c r="B10" s="18" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A11" s="39"/>
-      <c r="B11" s="18" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="39"/>
-      <c r="B12" s="18" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="36"/>
+      <c r="B12" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A13" s="17" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A13" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="38"/>
+      <c r="G13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D12"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D12"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -3372,7 +2818,7 @@
     <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:7">
+    <row r="1" spans="1:7" ht="40.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3395,7 +2841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:7">
+    <row r="2" spans="1:7" ht="81">
       <c r="A2" s="3" t="s">
         <v>178</v>
       </c>
@@ -3412,8 +2858,8 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:7">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" ht="30" customHeight="1">
+      <c r="A3" s="73" t="s">
         <v>182</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -3431,8 +2877,8 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1">
+      <c r="A4" s="74"/>
       <c r="B4" s="7" t="s">
         <v>185</v>
       </c>
@@ -3446,8 +2892,8 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:7">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" s="74"/>
       <c r="B5" s="8" t="s">
         <v>188</v>
       </c>
@@ -3461,8 +2907,8 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:7">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" s="74"/>
       <c r="B6" s="8" t="s">
         <v>190</v>
       </c>
@@ -3476,8 +2922,8 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" s="75"/>
       <c r="B7" s="5" t="s">
         <v>191</v>
       </c>
@@ -3491,7 +2937,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" ht="94.5" spans="1:7">
+    <row r="8" spans="1:7" ht="94.5">
       <c r="A8" s="3" t="s">
         <v>178</v>
       </c>
@@ -3510,7 +2956,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" ht="27" spans="1:7">
+    <row r="9" spans="1:7" ht="27">
       <c r="A9" s="3" t="s">
         <v>178</v>
       </c>
@@ -3529,20 +2975,59 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+    <row r="10" spans="1:7" ht="30" customHeight="1">
+      <c r="A10" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" s="78"/>
+      <c r="B11" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" s="79"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1"/>
+    <row r="14" spans="1:7" ht="30" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="213">
   <si>
     <t>修改日期/
 修改者</t>
@@ -762,6 +762,22 @@
   </si>
   <si>
     <t>购物车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserController</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>regist()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册：增加一个字段：邮箱地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +1005,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,80 +1098,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1094,41 +1134,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1466,7 +1485,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="60" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1475,104 +1494,104 @@
       <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="58" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="64" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="56"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="34"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="62" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1593,7 +1612,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="36"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
@@ -1612,69 +1631,69 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="36"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="36"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="36"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="39"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="36"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="36"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
@@ -2011,7 +2030,7 @@
       <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="45" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2020,26 +2039,26 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="45" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="38"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="38"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
@@ -2281,16 +2300,16 @@
       <c r="C46" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="D46" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="53" t="s">
+      <c r="F46" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="59"/>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1">
       <c r="A47" s="26" t="s">
@@ -2302,10 +2321,10 @@
       <c r="C47" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="60"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="37"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
       <c r="A48" s="26" t="s">
@@ -2317,16 +2336,16 @@
       <c r="C48" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="53" t="s">
+      <c r="F48" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="59"/>
+      <c r="G48" s="36"/>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1">
       <c r="A49" s="26" t="s">
@@ -2338,10 +2357,10 @@
       <c r="C49" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="60"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="37"/>
     </row>
     <row r="50" spans="1:7" ht="27">
       <c r="A50" s="26" t="s">
@@ -2353,16 +2372,16 @@
       <c r="C50" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="F50" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="59"/>
+      <c r="G50" s="36"/>
     </row>
     <row r="51" spans="1:7" ht="27">
       <c r="A51" s="26" t="s">
@@ -2374,10 +2393,10 @@
       <c r="C51" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="60"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="37"/>
     </row>
     <row r="52" spans="1:7" ht="27">
       <c r="A52" s="26" t="s">
@@ -2389,16 +2408,16 @@
       <c r="C52" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="53" t="s">
+      <c r="F52" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="59"/>
+      <c r="G52" s="36"/>
     </row>
     <row r="53" spans="1:7" ht="27">
       <c r="A53" s="26" t="s">
@@ -2410,10 +2429,10 @@
       <c r="C53" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="61"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="38"/>
     </row>
     <row r="54" spans="1:7" ht="27">
       <c r="A54" s="26" t="s">
@@ -2425,10 +2444,10 @@
       <c r="C54" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="60"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="37"/>
     </row>
     <row r="55" spans="1:7" ht="27">
       <c r="A55" s="26" t="s">
@@ -2440,16 +2459,16 @@
       <c r="C55" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="D55" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="53" t="s">
+      <c r="F55" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="59"/>
+      <c r="G55" s="36"/>
     </row>
     <row r="56" spans="1:7" ht="27">
       <c r="A56" s="26" t="s">
@@ -2461,10 +2480,10 @@
       <c r="C56" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="60"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="37"/>
     </row>
     <row r="57" spans="1:7" ht="40.5">
       <c r="A57" s="26" t="s">
@@ -2510,6 +2529,41 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G52:G54"/>
@@ -2519,41 +2573,6 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2605,7 +2624,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="60" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2614,80 +2633,80 @@
       <c r="C2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="70" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="57"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="57"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="57"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="34"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="14" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="57"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="58"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="52.9" customHeight="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="62" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -2696,67 +2715,67 @@
       <c r="C8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="68" t="s">
         <v>163</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A9" s="36"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="72"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="36"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="56"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="39"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="36"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="58"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="36"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="14" t="s">
         <v>170</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="72"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="54.75" customHeight="1">
@@ -2782,17 +2801,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D12"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2802,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2859,11 +2878,11 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
+      <c r="B3" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>36</v>
@@ -2878,7 +2897,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="74"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="7" t="s">
         <v>185</v>
       </c>
@@ -2893,7 +2912,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="74"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="8" t="s">
         <v>188</v>
       </c>
@@ -2908,7 +2927,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="74"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="8" t="s">
         <v>190</v>
       </c>
@@ -2923,109 +2942,126 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="75"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="5" t="s">
         <v>191</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>187</v>
+      <c r="D7" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>212</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="94.5">
-      <c r="A8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>195</v>
-      </c>
+    <row r="8" spans="1:7" ht="30" customHeight="1">
+      <c r="A8" s="80"/>
+      <c r="B8" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="27">
+    <row r="9" spans="1:7" ht="94.5">
       <c r="A9" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="27">
+      <c r="A10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="77" t="s">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="18" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" s="77"/>
+      <c r="B12" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D12" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E12" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1">
+      <c r="A13" s="35"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
     <row r="14" spans="1:7" ht="30" customHeight="1"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="223">
   <si>
     <t>修改日期/
 修改者</t>
@@ -725,9 +725,6 @@
     <t>个人中心订单页面</t>
   </si>
   <si>
-    <t>禅道ID：036</t>
-  </si>
-  <si>
     <t>2016/7/25
 高小艳</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -778,6 +775,51 @@
   </si>
   <si>
     <t>用户注册</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/26
+高小艳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderMgrController</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveOrder()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买-结算页提交订单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID：036</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID：037</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WafController</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveWafOrder()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf立即购买-结算页提交订单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf立即购买</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1011,8 +1053,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1032,74 +1140,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1116,30 +1173,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1148,6 +1184,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,7 +1527,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1494,104 +1536,104 @@
       <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="39"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="40"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="41"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="42" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="39"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="61"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="61"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="61"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1612,7 +1654,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="63"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
@@ -1631,69 +1673,69 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="63"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="39"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="63"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="63"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="63"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="39"/>
+      <c r="G14" s="61"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="63"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="63"/>
     </row>
     <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="63"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
@@ -2030,7 +2072,7 @@
       <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2039,26 +2081,26 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="39" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="49"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="49"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
@@ -2300,16 +2342,16 @@
       <c r="C46" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="F46" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="36"/>
+      <c r="G46" s="58"/>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1">
       <c r="A47" s="26" t="s">
@@ -2321,10 +2363,10 @@
       <c r="C47" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="37"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="59"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
       <c r="A48" s="26" t="s">
@@ -2336,16 +2378,16 @@
       <c r="C48" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="36"/>
+      <c r="G48" s="58"/>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1">
       <c r="A49" s="26" t="s">
@@ -2357,10 +2399,10 @@
       <c r="C49" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="37"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="1:7" ht="27">
       <c r="A50" s="26" t="s">
@@ -2372,16 +2414,16 @@
       <c r="C50" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="36"/>
+      <c r="G50" s="58"/>
     </row>
     <row r="51" spans="1:7" ht="27">
       <c r="A51" s="26" t="s">
@@ -2393,10 +2435,10 @@
       <c r="C51" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="37"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="1:7" ht="27">
       <c r="A52" s="26" t="s">
@@ -2408,16 +2450,16 @@
       <c r="C52" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="36"/>
+      <c r="G52" s="58"/>
     </row>
     <row r="53" spans="1:7" ht="27">
       <c r="A53" s="26" t="s">
@@ -2429,10 +2471,10 @@
       <c r="C53" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="38"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="60"/>
     </row>
     <row r="54" spans="1:7" ht="27">
       <c r="A54" s="26" t="s">
@@ -2444,10 +2486,10 @@
       <c r="C54" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="37"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="59"/>
     </row>
     <row r="55" spans="1:7" ht="27">
       <c r="A55" s="26" t="s">
@@ -2459,16 +2501,16 @@
       <c r="C55" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="42" t="s">
+      <c r="F55" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="36"/>
+      <c r="G55" s="58"/>
     </row>
     <row r="56" spans="1:7" ht="27">
       <c r="A56" s="26" t="s">
@@ -2480,10 +2522,10 @@
       <c r="C56" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="37"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="59"/>
     </row>
     <row r="57" spans="1:7" ht="40.5">
       <c r="A57" s="26" t="s">
@@ -2529,41 +2571,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F56"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G52:G54"/>
@@ -2573,6 +2580,41 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2624,7 +2666,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="35" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2633,80 +2675,80 @@
       <c r="C2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="39"/>
+      <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="64" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="40"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="61"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="14" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="40"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="61"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="41"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="63"/>
     </row>
     <row r="8" spans="1:7" ht="52.9" customHeight="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="37" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -2715,67 +2757,67 @@
       <c r="C8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="73" t="s">
         <v>163</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A9" s="63"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="69"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="63"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="39"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="63"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="41"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="63"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="14" t="s">
         <v>170</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="69"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="54.75" customHeight="1">
@@ -2801,17 +2843,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D12"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2823,8 +2865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2878,11 +2920,11 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="76" t="s">
         <v>182</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>36</v>
@@ -2897,7 +2939,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="79"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="7" t="s">
         <v>185</v>
       </c>
@@ -2912,7 +2954,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="79"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="8" t="s">
         <v>188</v>
       </c>
@@ -2927,7 +2969,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="79"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="8" t="s">
         <v>190</v>
       </c>
@@ -2942,33 +2984,33 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="79"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="5" t="s">
         <v>191</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>212</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="80"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>212</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -3006,62 +3048,101 @@
       <c r="E10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="76" t="s">
+      <c r="B11" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>204</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="77"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="E12" s="34" t="s">
         <v>207</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>208</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="A13" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>218</v>
+      </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1"/>
-    <row r="15" spans="1:7" ht="30" customHeight="1"/>
+    <row r="14" spans="1:7" ht="30" customHeight="1">
+      <c r="A14" s="79"/>
+      <c r="B14" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="233">
   <si>
     <t>修改日期/
 修改者</t>
@@ -820,6 +820,47 @@
   </si>
   <si>
     <t>waf立即购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/26
+高小艳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WafController</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingWaf()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf添加购物车，根据最新价格定义修改算法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf添加购物车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyNowWafUI()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf立即购买，根据最新价格定义修改算法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf立即购买</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wafDetails.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wafDetail.js</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -947,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,6 +1094,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1065,80 +1184,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1158,24 +1220,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,10 +1229,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1527,7 +1574,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1536,104 +1583,104 @@
       <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="59" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="62"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="63"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="65" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="61"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="62"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="62"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="62"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="36"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="63"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="63" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1654,7 +1701,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
@@ -1673,69 +1720,69 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="38"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="38"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="63"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="38"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
@@ -2072,7 +2119,7 @@
       <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="46" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2081,26 +2128,26 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="46" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="40"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1">
@@ -2342,16 +2389,16 @@
       <c r="C46" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="45" t="s">
+      <c r="E46" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="55" t="s">
+      <c r="F46" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="58"/>
+      <c r="G46" s="37"/>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1">
       <c r="A47" s="26" t="s">
@@ -2363,10 +2410,10 @@
       <c r="C47" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="59"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="38"/>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1">
       <c r="A48" s="26" t="s">
@@ -2378,16 +2425,16 @@
       <c r="C48" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="45" t="s">
+      <c r="E48" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="55" t="s">
+      <c r="F48" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="58"/>
+      <c r="G48" s="37"/>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1">
       <c r="A49" s="26" t="s">
@@ -2399,10 +2446,10 @@
       <c r="C49" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="59"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="38"/>
     </row>
     <row r="50" spans="1:7" ht="27">
       <c r="A50" s="26" t="s">
@@ -2414,16 +2461,16 @@
       <c r="C50" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="55" t="s">
+      <c r="F50" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="58"/>
+      <c r="G50" s="37"/>
     </row>
     <row r="51" spans="1:7" ht="27">
       <c r="A51" s="26" t="s">
@@ -2435,10 +2482,10 @@
       <c r="C51" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="59"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="38"/>
     </row>
     <row r="52" spans="1:7" ht="27">
       <c r="A52" s="26" t="s">
@@ -2450,16 +2497,16 @@
       <c r="C52" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="55" t="s">
+      <c r="F52" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="58"/>
+      <c r="G52" s="37"/>
     </row>
     <row r="53" spans="1:7" ht="27">
       <c r="A53" s="26" t="s">
@@ -2471,10 +2518,10 @@
       <c r="C53" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="60"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="39"/>
     </row>
     <row r="54" spans="1:7" ht="27">
       <c r="A54" s="26" t="s">
@@ -2486,10 +2533,10 @@
       <c r="C54" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="59"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="38"/>
     </row>
     <row r="55" spans="1:7" ht="27">
       <c r="A55" s="26" t="s">
@@ -2501,16 +2548,16 @@
       <c r="C55" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="58"/>
+      <c r="G55" s="37"/>
     </row>
     <row r="56" spans="1:7" ht="27">
       <c r="A56" s="26" t="s">
@@ -2522,10 +2569,10 @@
       <c r="C56" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="59"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="38"/>
     </row>
     <row r="57" spans="1:7" ht="40.5">
       <c r="A57" s="26" t="s">
@@ -2571,6 +2618,41 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G52:G54"/>
@@ -2580,41 +2662,6 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2666,7 +2713,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="61" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -2675,80 +2722,80 @@
       <c r="C2" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="71" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="62"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="62"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="62"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="14" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="62"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="14" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="63"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" ht="52.9" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="63" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -2757,67 +2804,67 @@
       <c r="C8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="69" t="s">
         <v>163</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="74"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="61"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="63"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="14" t="s">
         <v>170</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="74"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="54.75" customHeight="1">
@@ -2843,17 +2890,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D12"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2863,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2920,7 +2967,7 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="77" t="s">
         <v>182</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -2939,7 +2986,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="77"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="7" t="s">
         <v>185</v>
       </c>
@@ -2954,7 +3001,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="8" t="s">
         <v>188</v>
       </c>
@@ -2969,7 +3016,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="8" t="s">
         <v>190</v>
       </c>
@@ -2984,7 +3031,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="77"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="5" t="s">
         <v>191</v>
       </c>
@@ -2999,7 +3046,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="78"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="33" t="s">
         <v>208</v>
       </c>
@@ -3048,13 +3095,13 @@
       <c r="E10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="36" t="s">
         <v>217</v>
       </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="80" t="s">
         <v>199</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -3073,7 +3120,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="79"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="18" t="s">
         <v>204</v>
       </c>
@@ -3090,7 +3137,7 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="80" t="s">
         <v>212</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -3111,7 +3158,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="79"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="18" t="s">
         <v>219</v>
       </c>
@@ -3130,19 +3177,72 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="A15" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>227</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" s="59"/>
+      <c r="B18" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="07.18-07.24" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="290">
   <si>
     <t>修改日期/
 修改者</t>
@@ -863,12 +863,293 @@
     <t>wafDetail.js</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>2016/7/19
+汤欣荣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSSFilter.java</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放开export.html访问权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">服务结束后存在告警，下载word报表时，报表名称转译错误，报表内图片显示缺失，不完整 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID：020</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/20
+汤欣荣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>source/page/personalCenter/warnKeyword.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>js未加载</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">网页篡改监测服务 火狐上告警详情显示空白 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID：019</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>source/page/personalCenter/warnDoctor.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>source/page/personalCenter/warnUsable.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/21
+汤欣荣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyAssetsController.java</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>download()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">所有下载文件的地方都要加上安全限制 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID：013</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016/7/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+汤欣荣</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>source/page/personalCenter/userCenterList.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心中的服务名称可以点击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>禅道ID：0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>source/page/personalCenter/orderList.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/23
+汤欣荣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/source/page/userCenter/assetList.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发资产验证功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的资产</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>source/page/userCenter/userAssets.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAsset()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingController.java</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>addWebSite()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfHelpOrderMapper.xml</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id = findServiceAsset</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EngineMapper.xml</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id = findEngineByParam
+id = findEngineIdbyIP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql优化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>引擎</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式系统长期任务拆分</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskConsumerListener.java</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getArnhem()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增setOrderId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分任务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/25
+汤欣荣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新图片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页最上方和最下方Logo 应为小写的anquanbang.net 目前首字母大写了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID：026</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>source/page/regist/register.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“官方微信”链接 弹出的二维码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID：025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/26
+汤欣荣</t>
+  </si>
+  <si>
+    <t>禅道ID：032</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>source/page/personalCenter/warnDetail.jsp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin：288</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名冲突</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,6 +1185,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -988,7 +1277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,209 +1323,269 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,11 +1593,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1322,6 +1676,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1356,6 +1711,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1531,7 +1887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1539,18 +1895,18 @@
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="34" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="9" customWidth="1"/>
     <col min="4" max="4" width="39" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1">
+    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1573,8 +1929,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1583,104 +1939,104 @@
       <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="59" t="s">
+      <c r="G2" s="67"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="47" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="D3" s="58"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="53"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="59"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="58"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="54"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="65" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="48" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="47" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="55"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="65"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="67"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="56"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="41"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="62"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="68"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="62"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="68"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
       <c r="B8" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="59"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="56"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="20" t="s">
+      <c r="F8" s="58"/>
+      <c r="G8" s="68"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="59"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="57"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="63" t="s">
+      <c r="F9" s="59"/>
+      <c r="G9" s="69"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -1689,135 +2045,135 @@
       <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="64"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
       <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="64"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
       <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="50" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="64"/>
+      <c r="G12" s="67"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
       <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="60"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="57"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="64"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="69"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
       <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="50" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="64"/>
+      <c r="G14" s="67"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
       <c r="B15" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="60"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="57"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="1:7" ht="27">
-      <c r="A16" s="64"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="69"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
       <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="54.75" customHeight="1">
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1">
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
@@ -1825,38 +2181,38 @@
         <v>48</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="27">
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="53.25" customHeight="1">
-      <c r="A20" s="22" t="s">
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1865,19 +2221,19 @@
       <c r="C20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A21" s="22" t="s">
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -1886,19 +2242,19 @@
       <c r="C21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A22" s="22" t="s">
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -1907,19 +2263,19 @@
       <c r="C22" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" ht="42" customHeight="1">
-      <c r="A23" s="22" t="s">
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1928,38 +2284,38 @@
       <c r="C23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A24" s="22" t="s">
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A25" s="22" t="s">
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -1968,19 +2324,19 @@
       <c r="C25" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A26" s="22" t="s">
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -1989,19 +2345,19 @@
       <c r="C26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="42" customHeight="1">
-      <c r="A27" s="22" t="s">
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -2010,38 +2366,38 @@
       <c r="C27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A28" s="22" t="s">
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="22" t="s">
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -2050,76 +2406,76 @@
       <c r="C29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="22" t="s">
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="22" t="s">
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="22" t="s">
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="14"/>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="46" t="s">
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2128,30 +2484,30 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="45" t="s">
         <v>85</v>
       </c>
       <c r="E33" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="50"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="50"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="57"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1">
-      <c r="A35" s="22" t="s">
+      <c r="F34" s="46"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2161,16 +2517,16 @@
         <v>88</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1">
-      <c r="A36" s="22" t="s">
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -2179,19 +2535,19 @@
       <c r="C36" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1">
-      <c r="A37" s="22" t="s">
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -2200,19 +2556,19 @@
       <c r="C37" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1">
-      <c r="A38" s="22" t="s">
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -2221,19 +2577,19 @@
       <c r="C38" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1">
-      <c r="A39" s="22" t="s">
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -2242,19 +2598,19 @@
       <c r="C39" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1">
-      <c r="A40" s="22" t="s">
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -2263,19 +2619,19 @@
       <c r="C40" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1">
-      <c r="A41" s="22" t="s">
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -2284,19 +2640,19 @@
       <c r="C41" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1">
-      <c r="A42" s="22" t="s">
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -2305,19 +2661,19 @@
       <c r="C42" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1">
-      <c r="A43" s="22" t="s">
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -2326,19 +2682,19 @@
       <c r="C43" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1">
-      <c r="A44" s="22" t="s">
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B44" s="14" t="s">
@@ -2347,46 +2703,46 @@
       <c r="C44" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1">
-      <c r="A45" s="24" t="s">
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="25"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1">
-      <c r="A46" s="26" t="s">
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="27" t="s">
         <v>116</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -2395,34 +2751,34 @@
       <c r="E46" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="37"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1">
-      <c r="A47" s="26" t="s">
+      <c r="G46" s="64"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D47" s="51"/>
       <c r="E47" s="51"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="38"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="26" t="s">
+      <c r="F47" s="62"/>
+      <c r="G47" s="65"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="26" t="s">
         <v>121</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -2431,34 +2787,34 @@
       <c r="E48" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="37"/>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1">
-      <c r="A49" s="26" t="s">
+      <c r="G48" s="64"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="26" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="51"/>
       <c r="E49" s="51"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="38"/>
-    </row>
-    <row r="50" spans="1:7" ht="27">
-      <c r="A50" s="26" t="s">
+      <c r="F49" s="62"/>
+      <c r="G49" s="65"/>
+    </row>
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="26" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="51" t="s">
@@ -2467,34 +2823,34 @@
       <c r="E50" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="37"/>
-    </row>
-    <row r="51" spans="1:7" ht="27">
-      <c r="A51" s="26" t="s">
+      <c r="G50" s="64"/>
+    </row>
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="26" t="s">
         <v>127</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="51"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="38"/>
-    </row>
-    <row r="52" spans="1:7" ht="27">
-      <c r="A52" s="26" t="s">
+      <c r="F51" s="62"/>
+      <c r="G51" s="65"/>
+    </row>
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="26" t="s">
         <v>128</v>
       </c>
       <c r="D52" s="51" t="s">
@@ -2503,49 +2859,49 @@
       <c r="E52" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="37"/>
-    </row>
-    <row r="53" spans="1:7" ht="27">
-      <c r="A53" s="26" t="s">
+      <c r="G52" s="64"/>
+    </row>
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="26" t="s">
         <v>131</v>
       </c>
       <c r="D53" s="51"/>
       <c r="E53" s="51"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="39"/>
-    </row>
-    <row r="54" spans="1:7" ht="27">
-      <c r="A54" s="26" t="s">
+      <c r="F53" s="63"/>
+      <c r="G53" s="66"/>
+    </row>
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="51"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="38"/>
-    </row>
-    <row r="55" spans="1:7" ht="27">
-      <c r="A55" s="26" t="s">
+      <c r="F54" s="62"/>
+      <c r="G54" s="65"/>
+    </row>
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="26" t="s">
         <v>133</v>
       </c>
       <c r="D55" s="51" t="s">
@@ -2554,105 +2910,70 @@
       <c r="E55" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="37"/>
-    </row>
-    <row r="56" spans="1:7" ht="27">
-      <c r="A56" s="26" t="s">
+      <c r="G55" s="64"/>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="26" t="s">
         <v>137</v>
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="51"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="38"/>
-    </row>
-    <row r="57" spans="1:7" ht="40.5">
-      <c r="A57" s="26" t="s">
+      <c r="F56" s="62"/>
+      <c r="G56" s="65"/>
+    </row>
+    <row r="57" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="31"/>
-    </row>
-    <row r="58" spans="1:7" ht="27">
-      <c r="A58" s="26" t="s">
+      <c r="G57" s="30"/>
+    </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="32"/>
+      <c r="G58" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F56"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="G52:G54"/>
@@ -2662,6 +2983,41 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2670,26 +3026,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="42.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="39" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1">
+    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2712,195 +3068,504 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>148</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="71" t="s">
+      <c r="G2" s="67"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="53"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="14" t="s">
+      <c r="F3" s="78"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="53"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="14" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="53"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="14" t="s">
+      <c r="F5" s="78"/>
+      <c r="G5" s="68"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="53"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="41"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="14" t="s">
+      <c r="F6" s="78"/>
+      <c r="G6" s="68"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="76"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="54"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="1:7" ht="52.9" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="69"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="14" t="s">
+      <c r="G8" s="86"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="14" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="87"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="14" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="87"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="14" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="87"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="88"/>
+    </row>
+    <row r="13" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="79" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="86"/>
+    </row>
+    <row r="16" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="90"/>
+      <c r="B16" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="87"/>
+    </row>
+    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="91"/>
+      <c r="B17" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="88"/>
+    </row>
+    <row r="18" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="94" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="70"/>
+      <c r="F19" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="86"/>
+    </row>
+    <row r="20" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="91"/>
+      <c r="B20" s="95" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="88"/>
+    </row>
+    <row r="21" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21" s="86"/>
+    </row>
+    <row r="22" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="90"/>
+      <c r="B22" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="87"/>
+    </row>
+    <row r="23" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="90"/>
+      <c r="B23" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="87"/>
+    </row>
+    <row r="24" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="90"/>
+      <c r="B24" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="87"/>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="91"/>
+      <c r="B25" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="88"/>
+    </row>
+    <row r="26" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="F26" s="97" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" s="86"/>
+    </row>
+    <row r="27" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="102"/>
+      <c r="B27" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>272</v>
+      </c>
+      <c r="E27" s="101" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="92"/>
+      <c r="G27" s="88"/>
+    </row>
+    <row r="28" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="100" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="100" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="100" t="s">
+        <v>281</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="F30" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="30">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G12"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2909,24 +3574,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
-    <col min="4" max="4" width="41.25" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5">
+    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2949,7 +3614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="81">
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>178</v>
       </c>
@@ -2966,11 +3631,11 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="77" t="s">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>208</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2985,8 +3650,8 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="78"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84"/>
       <c r="B4" s="7" t="s">
         <v>185</v>
       </c>
@@ -3000,8 +3665,8 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="78"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
       <c r="B5" s="8" t="s">
         <v>188</v>
       </c>
@@ -3015,8 +3680,8 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="78"/>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
       <c r="B6" s="8" t="s">
         <v>190</v>
       </c>
@@ -3030,39 +3695,39 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="78"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
       <c r="B7" s="5" t="s">
         <v>191</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>211</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="33" t="s">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>211</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="94.5">
+    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>178</v>
       </c>
@@ -3081,7 +3746,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="27">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>178</v>
       </c>
@@ -3095,148 +3760,148 @@
       <c r="E10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>217</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="80" t="s">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>200</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>203</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="82"/>
+      <c r="B12" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="80" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="81"/>
-      <c r="B14" s="18" t="s">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="82"/>
+      <c r="B14" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="35" t="s">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="59" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="82" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="82" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A11:A12"/>

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="07.18-07.24" sheetId="1" r:id="rId1"/>
     <sheet name="汤" sheetId="2" r:id="rId2"/>
     <sheet name="07.25-07.31" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273">
   <si>
     <t>修改日期/
 修改者</t>
@@ -66,7 +66,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Salt</t>
     </r>
@@ -647,295 +647,63 @@
     <t>禅道ID：021</t>
   </si>
   <si>
-    <t>2016/7/25
-张少华</t>
-  </si>
-  <si>
-    <t>forgetPass.jsp
-updateMobile.jsp
-updatePass.jsp
-login.jsp
-register.jsp
-userBill.jsp</t>
-  </si>
-  <si>
-    <t>统一所有页面的微信二维码的图片</t>
-  </si>
-  <si>
-    <t>微信二维码的图片</t>
-  </si>
-  <si>
-    <t>2016/7/25
-高小艳</t>
-  </si>
-  <si>
-    <t>保存个人资料，增加一个字段：邮箱地址</t>
-  </si>
-  <si>
-    <t>个人资料</t>
-  </si>
-  <si>
-    <t>register.jsp</t>
-  </si>
-  <si>
-    <t>用户注册：增加一个字段：邮箱地址</t>
-  </si>
-  <si>
-    <t>用户注册</t>
-  </si>
-  <si>
-    <t>userData.jsp</t>
-  </si>
-  <si>
-    <t>个人资料，增加一个字段：邮箱地址</t>
-  </si>
-  <si>
-    <t>personal.js</t>
-  </si>
-  <si>
-    <t>regist.js</t>
-  </si>
-  <si>
-    <t>apiDetails.jsp
-apiDetails2.jsp
-apiDetails3.jsp
-apiDetails4.jsp
-apiDetails5.jsp
-vulnScanDetails.jsp
-wafDetails.jsp</t>
-  </si>
-  <si>
-    <t>所有服务详情页面的标题都需要修改
-WEB漏洞监测服务订单 修改为
-WEB漏洞监测服务商品信息</t>
-  </si>
-  <si>
-    <t>所有服务详情页面</t>
-  </si>
-  <si>
-    <t>禅道ID：030</t>
-  </si>
-  <si>
-    <t>center_index.jsp</t>
-  </si>
-  <si>
-    <t>个人中心订单列表表头的“服务起始时间”应改为“服务起止时间”</t>
-  </si>
-  <si>
-    <t>个人中心订单页面</t>
-  </si>
-  <si>
-    <t>2016/7/25
-高小艳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderMgrController</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteOrder()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单删除权限控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingController</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>delShopCar()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除购物车</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserController</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>regist()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册：增加一个字段：邮箱地址</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户注册</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/7/26
-高小艳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderMgrController</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveOrder()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即购买-结算页提交订单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅道ID：036</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅道ID：037</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WafController</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveWafOrder()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>waf立即购买-结算页提交订单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>waf立即购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/7/26
-高小艳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WafController</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingWaf()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>waf添加购物车，根据最新价格定义修改算法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>waf添加购物车</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyNowWafUI()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>waf立即购买，根据最新价格定义修改算法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>waf立即购买</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wafDetails.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>wafDetail.js</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/7/19
-汤欣荣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>XSSFilter.java</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>放开export.html访问权限</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">服务结束后存在告警，下载word报表时，报表名称转译错误，报表内图片显示缺失，不完整 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>禅道ID：020</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2016/7/20
 汤欣荣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>source/page/personalCenter/warnKeyword.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>js未加载</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">网页篡改监测服务 火狐上告警详情显示空白 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>禅道ID：019</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>source/page/personalCenter/warnDoctor.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>source/page/personalCenter/warnUsable.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2016/7/21
 汤欣荣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyAssetsController.java</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>download()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">所有下载文件的地方都要加上安全限制 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>禅道ID：013</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2016/7/2</t>
     </r>
     <r>
@@ -943,9 +711,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>3</t>
     </r>
@@ -955,23 +721,25 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 汤欣荣</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>source/page/personalCenter/userCenterList.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>个人中心中的服务名称可以点击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>禅道ID：0</t>
     </r>
     <r>
@@ -979,9 +747,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -991,165 +757,295 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>source/page/personalCenter/orderList.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2016/7/23
 汤欣荣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>/source/page/userCenter/assetList.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发资产验证功能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>我的资产</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>source/page/userCenter/userAssets.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>addAsset()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>shoppingController.java</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>addWebSite()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelfHelpOrderMapper.xml</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>id = findServiceAsset</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EngineMapper.xml</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>id = findEngineByParam
 id = findEngineIdbyIP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>sql优化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>引擎</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>分布式系统长期任务拆分</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TaskConsumerListener.java</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>getArnhem()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新增setOrderId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>拆分任务</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2016/7/25
 汤欣荣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>main.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>更新图片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>首页最上方和最下方Logo 应为小写的anquanbang.net 目前首字母大写了</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>禅道ID：026</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>source/page/regist/register.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>“官方微信”链接 弹出的二维码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
   </si>
   <si>
     <t>禅道ID：025</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2016/7/26
 汤欣荣</t>
   </si>
   <si>
+    <t>source/page/personalCenter/warnDetail.jsp</t>
+  </si>
+  <si>
+    <t>begin：288</t>
+  </si>
+  <si>
+    <t>命名冲突</t>
+  </si>
+  <si>
     <t>禅道ID：032</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>source/page/personalCenter/warnDetail.jsp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin：288</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>命名冲突</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/25
+张少华</t>
+  </si>
+  <si>
+    <t>forgetPass.jsp
+updateMobile.jsp
+updatePass.jsp
+login.jsp
+register.jsp
+userBill.jsp</t>
+  </si>
+  <si>
+    <t>统一所有页面的微信二维码的图片</t>
+  </si>
+  <si>
+    <t>微信二维码的图片</t>
+  </si>
+  <si>
+    <t>2016/7/25
+高小艳</t>
+  </si>
+  <si>
+    <t>保存个人资料，增加一个字段：邮箱地址</t>
+  </si>
+  <si>
+    <t>个人资料</t>
+  </si>
+  <si>
+    <t>register.jsp</t>
+  </si>
+  <si>
+    <t>用户注册：增加一个字段：邮箱地址</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>userData.jsp</t>
+  </si>
+  <si>
+    <t>个人资料，增加一个字段：邮箱地址</t>
+  </si>
+  <si>
+    <t>personal.js</t>
+  </si>
+  <si>
+    <t>regist.js</t>
+  </si>
+  <si>
+    <t>apiDetails.jsp
+apiDetails2.jsp
+apiDetails3.jsp
+apiDetails4.jsp
+apiDetails5.jsp
+vulnScanDetails.jsp
+wafDetails.jsp</t>
+  </si>
+  <si>
+    <t>所有服务详情页面的标题都需要修改
+WEB漏洞监测服务订单 修改为
+WEB漏洞监测服务商品信息</t>
+  </si>
+  <si>
+    <t>所有服务详情页面</t>
+  </si>
+  <si>
+    <t>禅道ID：030</t>
+  </si>
+  <si>
+    <t>center_index.jsp</t>
+  </si>
+  <si>
+    <t>个人中心订单列表表头的“服务起始时间”应改为“服务起止时间”</t>
+  </si>
+  <si>
+    <t>个人中心订单页面</t>
+  </si>
+  <si>
+    <t>禅道ID：036</t>
+  </si>
+  <si>
+    <t>deleteOrder()</t>
+  </si>
+  <si>
+    <t>订单删除权限控制</t>
+  </si>
+  <si>
+    <t>delShopCar()</t>
+  </si>
+  <si>
+    <t>删除购物车</t>
+  </si>
+  <si>
+    <t>2016/7/26
+高小艳</t>
+  </si>
+  <si>
+    <t>立即购买-结算页提交订单</t>
+  </si>
+  <si>
+    <t>立即购买</t>
+  </si>
+  <si>
+    <t>禅道ID：037</t>
+  </si>
+  <si>
+    <t>waf立即购买-结算页提交订单</t>
+  </si>
+  <si>
+    <t>waf添加购物车，根据最新价格定义修改算法</t>
+  </si>
+  <si>
+    <t>waf添加购物车</t>
+  </si>
+  <si>
+    <t>waf立即购买，根据最新价格定义修改算法</t>
+  </si>
+  <si>
+    <t>wafDetails.jsp</t>
+  </si>
+  <si>
+    <t>2016/7/26
+张少华</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portalindex.css
+main.jsp
+api_anquanbang.jsp
+web_anquanbang.jsp
+apiDetails.jsp
+apiDetails2.jsp
+apiDetails3.jsp
+apiDetails4.jsp
+apiDetails5.jsp
+newSettlement.jsp
+settlement.jsp
+shoppingCart-order.jsp
+details.js
+wafDetails.js
+shoppingcashier-desk2.jsp
+vulnScanDetails.jsp
+wafDetails.jsp
+</t>
+  </si>
+  <si>
+    <t>页面的"¥"改为"安全币"</t>
+  </si>
+  <si>
+    <t>首页，
+详情页，
+网站安全帮，
+安全能力API，
+结算页，
+立即购买页面，
+购物车页面，
+收银台页面
+支付成功页面</t>
+  </si>
+  <si>
+    <t>userAssets.jsp
+popBox.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">增加资产对话框关闭后，点击"官方微信"，微信二维码不显示
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,6 +1061,176 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1174,30 +1240,10 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1206,12 +1252,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39988402966399123"/>
+        <fgColor theme="6" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1271,21 +1503,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1305,6 +1781,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1320,39 +1853,144 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1362,242 +2000,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1887,595 +2372,597 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="34" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="39" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="34" style="28" customWidth="1"/>
+    <col min="3" max="3" width="21.775" style="28" customWidth="1"/>
+    <col min="4" max="4" width="39" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="29" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="28" customWidth="1"/>
+    <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" ht="69.75" customHeight="1" spans="1:7">
+      <c r="A2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="67"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="47" t="s">
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A3" s="37"/>
+      <c r="B3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="68"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="69"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="48" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A4" s="37"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A5" s="37"/>
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="67"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="14" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="36"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A6" s="37"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="68"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="14" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A7" s="37"/>
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="68"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="14" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A8" s="37"/>
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="68"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="19" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A9" s="37"/>
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="69"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:7">
+      <c r="A10" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="14" t="s">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" ht="32.1" customHeight="1" spans="1:7">
+      <c r="A11" s="51"/>
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="14" t="s">
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A12" s="51"/>
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="67"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="14" t="s">
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A13" s="51"/>
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="69"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="14" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A14" s="51"/>
+      <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="67"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="14" t="s">
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A15" s="51"/>
+      <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="69"/>
-    </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="14" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" ht="27" spans="1:7">
+      <c r="A16" s="51"/>
+      <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="1:7">
+      <c r="A18" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" ht="27" spans="1:7">
+      <c r="A19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" ht="53.25" customHeight="1" spans="1:7">
+      <c r="A20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" ht="44.25" customHeight="1" spans="1:7">
+      <c r="A21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" ht="32.25" customHeight="1" spans="1:7">
+      <c r="A22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:7">
+      <c r="A23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" ht="44.25" customHeight="1" spans="1:7">
+      <c r="A25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" ht="32.25" customHeight="1" spans="1:7">
+      <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:7">
+      <c r="A27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:7">
+      <c r="A29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:7">
+      <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:7">
+      <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:7">
+      <c r="A32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:7">
+      <c r="A33" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2484,30 +2971,30 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:7">
       <c r="A34" s="46"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="46"/>
-      <c r="E34" s="57"/>
+      <c r="E34" s="75"/>
       <c r="F34" s="46"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:7">
+      <c r="A35" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2517,1081 +3004,1086 @@
         <v>88</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:7">
+      <c r="A36" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:7">
+      <c r="A37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:7">
+      <c r="A38" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" ht="30" customHeight="1" spans="1:7">
+      <c r="A39" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:7">
+      <c r="A40" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:7">
+      <c r="A41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:7">
+      <c r="A42" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:7">
+      <c r="A43" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:7">
+      <c r="A44" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:7">
+      <c r="A45" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="22" t="s">
         <v>34</v>
       </c>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+    <row r="46" ht="30" customHeight="1" spans="1:7">
+      <c r="A46" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="51" t="s">
+      <c r="D46" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="61" t="s">
+      <c r="F46" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="64"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="G46" s="84"/>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="1:7">
+      <c r="A47" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="65"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="86"/>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="1:7">
+      <c r="A48" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="61" t="s">
+      <c r="F48" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="64"/>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="G48" s="84"/>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:7">
+      <c r="A49" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="65"/>
-    </row>
-    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="86"/>
+    </row>
+    <row r="50" ht="27" spans="1:7">
+      <c r="A50" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="61" t="s">
+      <c r="F50" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="64"/>
-    </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="G50" s="84"/>
+    </row>
+    <row r="51" ht="27" spans="1:7">
+      <c r="A51" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="65"/>
-    </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="86"/>
+    </row>
+    <row r="52" ht="27" spans="1:7">
+      <c r="A52" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="61" t="s">
+      <c r="F52" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="64"/>
-    </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="G52" s="84"/>
+    </row>
+    <row r="53" ht="27" spans="1:7">
+      <c r="A53" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="66"/>
-    </row>
-    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="88"/>
+    </row>
+    <row r="54" ht="27" spans="1:7">
+      <c r="A54" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="65"/>
-    </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="86"/>
+    </row>
+    <row r="55" ht="27" spans="1:7">
+      <c r="A55" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D55" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="51" t="s">
+      <c r="E55" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="61" t="s">
+      <c r="F55" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="64"/>
-    </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="G55" s="84"/>
+    </row>
+    <row r="56" ht="27" spans="1:7">
+      <c r="A56" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="65"/>
-    </row>
-    <row r="57" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="86"/>
+    </row>
+    <row r="57" ht="40.5" spans="1:7">
+      <c r="A57" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="30"/>
-    </row>
-    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="G57" s="90"/>
+    </row>
+    <row r="58" ht="27" spans="1:7">
+      <c r="A58" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="31"/>
+      <c r="G58" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G56"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="39" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="42.8833333333333" style="28" customWidth="1"/>
+    <col min="3" max="3" width="33.4416666666667" style="28" customWidth="1"/>
+    <col min="4" max="4" width="39" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="29" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="28" customWidth="1"/>
+    <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" ht="69.75" customHeight="1" spans="1:7">
+      <c r="A2" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="67"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="70" t="s">
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A3" s="37"/>
+      <c r="B3" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="68"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="38" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="68"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="38" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A5" s="37"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="68"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="38" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A6" s="37"/>
+      <c r="B6" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="68"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="38" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A7" s="37"/>
+      <c r="B7" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="54"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="46"/>
-      <c r="G7" s="69"/>
-    </row>
-    <row r="8" spans="1:7" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" ht="52.95" customHeight="1" spans="1:7">
+      <c r="A8" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="86"/>
-    </row>
-    <row r="9" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="38" t="s">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" ht="32.1" customHeight="1" spans="1:7">
+      <c r="A9" s="51"/>
+      <c r="B9" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="87"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="38" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A10" s="51"/>
+      <c r="B10" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="87"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="38" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A11" s="51"/>
+      <c r="B11" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="87"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="38" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A12" s="51"/>
+      <c r="B12" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="88"/>
-    </row>
-    <row r="13" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A13" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="39" t="s">
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A14" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A15" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A16" s="57"/>
+      <c r="B16" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A17" s="58"/>
+      <c r="B17" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A18" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A19" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A20" s="58"/>
+      <c r="B20" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A21" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A22" s="57"/>
+      <c r="B22" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" s="86"/>
-    </row>
-    <row r="16" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="87"/>
-    </row>
-    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="88"/>
-    </row>
-    <row r="18" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93" t="s">
-        <v>245</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
-        <v>250</v>
-      </c>
-      <c r="B19" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="97" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" s="86"/>
-    </row>
-    <row r="20" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="95" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="88"/>
-    </row>
-    <row r="21" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>258</v>
-      </c>
-      <c r="F21" s="79" t="s">
-        <v>258</v>
-      </c>
-      <c r="G21" s="86"/>
-    </row>
-    <row r="22" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="87"/>
-    </row>
-    <row r="23" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="87"/>
-    </row>
-    <row r="24" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="87"/>
-    </row>
-    <row r="25" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="88"/>
-    </row>
-    <row r="26" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="B26" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" s="101" t="s">
-        <v>268</v>
-      </c>
-      <c r="F26" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="G26" s="86"/>
-    </row>
-    <row r="27" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
-      <c r="B27" s="95" t="s">
-        <v>270</v>
-      </c>
-      <c r="C27" s="100" t="s">
-        <v>271</v>
-      </c>
-      <c r="D27" s="101" t="s">
-        <v>272</v>
-      </c>
-      <c r="E27" s="101" t="s">
-        <v>273</v>
-      </c>
-      <c r="F27" s="92"/>
-      <c r="G27" s="88"/>
-    </row>
-    <row r="28" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B28" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="C28" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="D28" s="100" t="s">
-        <v>277</v>
-      </c>
-      <c r="E28" s="100" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" s="95" t="s">
-        <v>279</v>
-      </c>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
-        <v>274</v>
-      </c>
-      <c r="B29" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="C29" s="100" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="100" t="s">
-        <v>281</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="F29" s="95" t="s">
-        <v>282</v>
-      </c>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>289</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="F30" s="95" t="s">
-        <v>284</v>
-      </c>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="17"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+    </row>
+    <row r="23" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A23" s="57"/>
+      <c r="B23" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+    </row>
+    <row r="24" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A24" s="57"/>
+      <c r="B24" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+    </row>
+    <row r="25" ht="28.8" customHeight="1" spans="1:7">
+      <c r="A25" s="58"/>
+      <c r="B25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" ht="51.6" customHeight="1" spans="1:7">
+      <c r="A26" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" ht="51.6" customHeight="1" spans="1:7">
+      <c r="A27" s="68"/>
+      <c r="B27" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" ht="45" customHeight="1" spans="1:7">
+      <c r="A28" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" ht="36.6" customHeight="1" spans="1:7">
+      <c r="A29" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:7">
+      <c r="A30" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" ht="41.4" customHeight="1" spans="1:7">
+      <c r="A31" s="32"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E25"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G26:G27"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.4416666666667" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.775" customWidth="1"/>
+    <col min="4" max="4" width="41.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="19.2166666666667" customWidth="1"/>
+    <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="40.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3614,302 +4106,351 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="2" ht="81" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>208</v>
+    <row r="3" ht="30" customHeight="1" spans="1:7">
+      <c r="A3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
+    <row r="4" ht="30" customHeight="1" spans="1:7">
+      <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
+    <row r="5" ht="30" customHeight="1" spans="1:7">
+      <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
+    <row r="6" ht="30" customHeight="1" spans="1:7">
+      <c r="A6" s="11"/>
       <c r="B6" s="8" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
+    <row r="7" ht="30" customHeight="1" spans="1:7">
+      <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>211</v>
+      <c r="D7" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>211</v>
+    <row r="8" ht="30" customHeight="1" spans="1:7">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="9" ht="94.5" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" ht="27" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="7" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>217</v>
+        <v>252</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>203</v>
+    <row r="11" ht="30" customHeight="1" spans="1:7">
+      <c r="A11" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" ht="30" customHeight="1" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:7">
+      <c r="A13" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:7">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:7">
+      <c r="A15" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:7">
+      <c r="A16" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:7">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:7">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" ht="196" customHeight="1" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" ht="40.5" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -11,7 +11,7 @@
     <sheet name="汤" sheetId="2" r:id="rId2"/>
     <sheet name="07.25-07.31" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1010,6 +1010,9 @@
 shoppingcashier-desk2.jsp
 vulnScanDetails.jsp
 wafDetails.jsp
+center_index.jsp
+my_balance.jsp
+my_order.jsp
 </t>
   </si>
   <si>
@@ -1024,7 +1027,9 @@
 立即购买页面，
 购物车页面，
 收银台页面
-支付成功页面</t>
+支付成功页面
+我的安全币页面
+我的订单页面</t>
   </si>
   <si>
     <t>userAssets.jsp
@@ -1040,12 +1045,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,27 +1066,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1090,8 +1074,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1108,7 +1146,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1119,23 +1157,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,80 +1203,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1258,7 +1243,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,31 +1273,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,43 +1303,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,49 +1327,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,25 +1357,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,8 +1507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1545,9 +1530,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,6 +1550,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1586,17 +1582,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1606,152 +1591,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1829,12 +1814,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1934,32 +1913,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1967,15 +1925,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1989,9 +1941,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2385,39 +2334,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="34" style="28" customWidth="1"/>
-    <col min="3" max="3" width="21.775" style="28" customWidth="1"/>
-    <col min="4" max="4" width="39" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" style="29" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34" style="26" customWidth="1"/>
+    <col min="3" max="3" width="21.775" style="26" customWidth="1"/>
+    <col min="4" max="4" width="39" style="27" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="26" customWidth="1"/>
     <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2426,39 +2375,39 @@
       <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="37"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="37"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="20"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="47"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="37"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
@@ -2468,23 +2417,23 @@
       <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="36"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="37"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="20"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="41"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="37"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
@@ -2492,12 +2441,12 @@
         <v>19</v>
       </c>
       <c r="D7" s="20"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="41"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="39"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="37"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
@@ -2505,12 +2454,12 @@
         <v>21</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="41"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="39"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A9" s="37"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
@@ -2518,12 +2467,12 @@
         <v>23</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="47"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2535,7 +2484,7 @@
       <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="65" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2544,7 +2493,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A11" s="51"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
@@ -2554,7 +2503,7 @@
       <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="65" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -2563,7 +2512,7 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="51"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
@@ -2573,16 +2522,16 @@
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="36"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A13" s="51"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
@@ -2590,12 +2539,12 @@
         <v>35</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="47"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A14" s="51"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
@@ -2605,27 +2554,27 @@
       <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A15" s="51"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="47"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" ht="27" spans="1:7">
-      <c r="A16" s="51"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
@@ -2635,7 +2584,7 @@
       <c r="D16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="76" t="s">
+      <c r="E16" s="65" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -2644,7 +2593,7 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2661,7 +2610,7 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" ht="33" customHeight="1" spans="1:7">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2671,7 +2620,7 @@
       <c r="D18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="65" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="13" t="s">
@@ -2680,7 +2629,7 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" ht="27" spans="1:7">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -2690,7 +2639,7 @@
       <c r="D19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="65" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="13" t="s">
@@ -2711,7 +2660,7 @@
       <c r="D20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="76" t="s">
+      <c r="E20" s="65" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="20" t="s">
@@ -2962,7 +2911,7 @@
       <c r="G32" s="18"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="33" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2971,26 +2920,26 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="33" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="46"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="46"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="18"/>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:7">
@@ -3004,7 +2953,7 @@
         <v>88</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="77" t="s">
+      <c r="E35" s="66" t="s">
         <v>89</v>
       </c>
       <c r="F35" s="20" t="s">
@@ -3025,7 +2974,7 @@
       <c r="D36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="76" t="s">
+      <c r="E36" s="65" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="20" t="s">
@@ -3046,7 +2995,7 @@
       <c r="D37" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="76" t="s">
+      <c r="E37" s="65" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="20" t="s">
@@ -3202,13 +3151,13 @@
       <c r="G44" s="18"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:7">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="48" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="22" t="s">
@@ -3223,241 +3172,241 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:7">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="81" t="s">
+      <c r="C46" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="82" t="s">
+      <c r="D46" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="83" t="s">
+      <c r="F46" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="84"/>
+      <c r="G46" s="72"/>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:7">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="86"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="74"/>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="82" t="s">
+      <c r="D48" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="82" t="s">
+      <c r="E48" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="83" t="s">
+      <c r="F48" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="84"/>
+      <c r="G48" s="72"/>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:7">
-      <c r="A49" s="79" t="s">
+      <c r="A49" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="86"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="74"/>
     </row>
     <row r="50" ht="27" spans="1:7">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="80" t="s">
+      <c r="C50" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="82" t="s">
+      <c r="D50" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="82" t="s">
+      <c r="E50" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="83" t="s">
+      <c r="F50" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="84"/>
+      <c r="G50" s="72"/>
     </row>
     <row r="51" ht="27" spans="1:7">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="80" t="s">
+      <c r="C51" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="86"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="74"/>
     </row>
     <row r="52" ht="27" spans="1:7">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="80" t="s">
+      <c r="B52" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="80" t="s">
+      <c r="C52" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="82" t="s">
+      <c r="D52" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="82" t="s">
+      <c r="E52" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="83" t="s">
+      <c r="F52" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="84"/>
+      <c r="G52" s="72"/>
     </row>
     <row r="53" ht="27" spans="1:7">
-      <c r="A53" s="79" t="s">
+      <c r="A53" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="88"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="76"/>
     </row>
     <row r="54" ht="27" spans="1:7">
-      <c r="A54" s="79" t="s">
+      <c r="A54" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="80" t="s">
+      <c r="C54" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="86"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="74"/>
     </row>
     <row r="55" ht="27" spans="1:7">
-      <c r="A55" s="79" t="s">
+      <c r="A55" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="80" t="s">
+      <c r="B55" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="80" t="s">
+      <c r="C55" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="82" t="s">
+      <c r="D55" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="82" t="s">
+      <c r="E55" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="83" t="s">
+      <c r="F55" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="84"/>
+      <c r="G55" s="72"/>
     </row>
     <row r="56" ht="27" spans="1:7">
-      <c r="A56" s="79" t="s">
+      <c r="A56" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="80" t="s">
+      <c r="B56" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="80" t="s">
+      <c r="C56" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="86"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="74"/>
     </row>
     <row r="57" ht="40.5" spans="1:7">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="89" t="s">
+      <c r="B57" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="83" t="s">
+      <c r="D57" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="83" t="s">
+      <c r="E57" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="89" t="s">
+      <c r="F57" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="90"/>
+      <c r="G57" s="78"/>
     </row>
     <row r="58" ht="27" spans="1:7">
-      <c r="A58" s="79" t="s">
+      <c r="A58" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="81" t="s">
+      <c r="C58" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="81" t="s">
+      <c r="D58" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="81" t="s">
+      <c r="E58" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="80" t="s">
+      <c r="F58" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="91"/>
+      <c r="G58" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3526,39 +3475,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="42.8833333333333" style="28" customWidth="1"/>
-    <col min="3" max="3" width="33.4416666666667" style="28" customWidth="1"/>
-    <col min="4" max="4" width="39" style="29" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" style="29" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" style="28" customWidth="1"/>
+    <col min="2" max="2" width="42.8833333333333" style="26" customWidth="1"/>
+    <col min="3" max="3" width="33.4416666666667" style="26" customWidth="1"/>
+    <col min="4" max="4" width="39" style="27" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="27" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="26" customWidth="1"/>
     <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -3567,80 +3516,80 @@
       <c r="C2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="36"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="37"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="22" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="37"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="37"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="37"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="13" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="37"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="13" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" ht="52.95" customHeight="1" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -3652,68 +3601,68 @@
       <c r="D8" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="48" t="s">
         <v>163</v>
       </c>
       <c r="G8" s="24"/>
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A9" s="51"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="13" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="51"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="13" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A11" s="51"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="13" t="s">
         <v>168</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="51"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="13" t="s">
         <v>170</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="55"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="30" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -3734,7 +3683,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -3755,7 +3704,7 @@
       <c r="G14" s="24"/>
     </row>
     <row r="15" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="54" t="s">
         <v>182</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -3770,35 +3719,35 @@
       <c r="E15" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="48" t="s">
         <v>186</v>
       </c>
       <c r="G15" s="24"/>
     </row>
     <row r="16" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A16" s="57"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="58"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="55"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="46" t="s">
         <v>189</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -3817,35 +3766,35 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="5" t="s">
         <v>195</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="33" t="s">
         <v>196</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="58" t="s">
         <v>197</v>
       </c>
       <c r="G19" s="24"/>
     </row>
     <row r="20" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A20" s="58"/>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="5" t="s">
         <v>198</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="55"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -3858,143 +3807,143 @@
       <c r="E21" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="48" t="s">
         <v>202</v>
       </c>
       <c r="G21" s="24"/>
     </row>
     <row r="22" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A22" s="57"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A23" s="57"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="13" t="s">
         <v>190</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A24" s="57"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="13" t="s">
         <v>205</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" ht="28.8" customHeight="1" spans="1:7">
-      <c r="A25" s="58"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="55"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" ht="51.6" customHeight="1" spans="1:7">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="58" t="s">
         <v>212</v>
       </c>
       <c r="G26" s="24"/>
     </row>
     <row r="27" ht="51.6" customHeight="1" spans="1:7">
-      <c r="A27" s="68"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="55"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" ht="45" customHeight="1" spans="1:7">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="5" t="s">
         <v>222</v>
       </c>
       <c r="G28" s="18"/>
     </row>
     <row r="29" ht="36.6" customHeight="1" spans="1:7">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="4" t="s">
         <v>224</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="5" t="s">
         <v>226</v>
       </c>
       <c r="G29" s="18"/>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:7">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="46" t="s">
         <v>227</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -4009,13 +3958,13 @@
       <c r="E30" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="5" t="s">
         <v>231</v>
       </c>
       <c r="G30" s="18"/>
     </row>
     <row r="31" ht="41.4" customHeight="1" spans="1:7">
-      <c r="A31" s="32"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="13"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
@@ -4068,9 +4017,9 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4393,55 +4342,55 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" ht="196" customHeight="1" spans="1:7">
+    <row r="19" ht="279" customHeight="1" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" ht="40.5" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="07.18-07.24" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="281">
   <si>
     <t>修改日期/
 修改者</t>
@@ -66,7 +66,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Salt</t>
     </r>
@@ -806,9 +806,6 @@
     <t>引擎</t>
   </si>
   <si>
-    <t>分布式系统长期任务拆分</t>
-  </si>
-  <si>
     <t>TaskConsumerListener.java</t>
   </si>
   <si>
@@ -1039,18 +1036,127 @@
     <t xml:space="preserve">增加资产对话框关闭后，点击"官方微信"，微信二维码不显示
 </t>
   </si>
+  <si>
+    <t>2016/7/26
+汤欣荣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道ID：022</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getscanResult()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskMapper.xml</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultConsumerListener.java</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分布式系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+问题：查看详情时显示安全帮的没有发送和接收字节，但后台显示有数据。
+解决：任务短时间内结束，直接获取任务结果并没有获取执行状态。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分布式系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长期任务拆分</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = findTaskByOrderId</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分布式系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+sql优化（处理脏数据）</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1063,150 +1169,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1225,10 +1187,32 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,198 +1221,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399884029663991"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1488,255 +1286,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,272 +1322,266 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2321,597 +1871,595 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="34" style="26" customWidth="1"/>
-    <col min="3" max="3" width="21.775" style="26" customWidth="1"/>
-    <col min="4" max="4" width="39" style="27" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" style="27" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" style="26" customWidth="1"/>
-    <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="34" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="39" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="35"/>
-      <c r="B3" s="20" t="s">
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="35"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="35"/>
-      <c r="B5" s="13" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="63"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="35"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="35"/>
-      <c r="B7" s="13" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="62"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="35"/>
-      <c r="B8" s="13" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="62"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A9" s="35"/>
-      <c r="B9" s="16" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="46" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="63"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A11" s="49"/>
-      <c r="B11" s="13" t="s">
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="49"/>
-      <c r="B12" s="13" t="s">
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A13" s="49"/>
-      <c r="B13" s="13" t="s">
+      <c r="G12" s="61"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A14" s="49"/>
-      <c r="B14" s="13" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="63"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="34"/>
-    </row>
-    <row r="15" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A15" s="49"/>
-      <c r="B15" s="13" t="s">
+      <c r="G14" s="61"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" ht="27" spans="1:7">
-      <c r="A16" s="49"/>
-      <c r="B16" s="13" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="63"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="30" t="s">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" ht="33" customHeight="1" spans="1:7">
-      <c r="A18" s="30" t="s">
+      <c r="E17" s="15"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" ht="27" spans="1:7">
-      <c r="A19" s="30" t="s">
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="20" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" ht="53.25" customHeight="1" spans="1:7">
-      <c r="A20" s="10" t="s">
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A21" s="10" t="s">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A22" s="10" t="s">
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" ht="42" customHeight="1" spans="1:7">
-      <c r="A23" s="10" t="s">
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A24" s="10" t="s">
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" ht="44.25" customHeight="1" spans="1:7">
-      <c r="A25" s="10" t="s">
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A26" s="10" t="s">
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" ht="42" customHeight="1" spans="1:7">
-      <c r="A27" s="10" t="s">
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A28" s="10" t="s">
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="20" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" ht="30" customHeight="1" spans="1:7">
-      <c r="A29" s="10" t="s">
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="1:7">
-      <c r="A30" s="10" t="s">
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" ht="30" customHeight="1" spans="1:7">
-      <c r="A31" s="10" t="s">
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="1:7">
-      <c r="A32" s="10" t="s">
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="33" t="s">
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2920,30 +2468,30 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="44"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="43"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" ht="30" customHeight="1" spans="1:7">
-      <c r="A35" s="10" t="s">
+      <c r="D34" s="43"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2953,917 +2501,915 @@
         <v>88</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" ht="30" customHeight="1" spans="1:7">
-      <c r="A36" s="10" t="s">
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" ht="30" customHeight="1" spans="1:7">
-      <c r="A37" s="10" t="s">
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" ht="30" customHeight="1" spans="1:7">
-      <c r="A38" s="10" t="s">
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" ht="30" customHeight="1" spans="1:7">
-      <c r="A39" s="10" t="s">
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="1:7">
-      <c r="A40" s="10" t="s">
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" ht="30" customHeight="1" spans="1:7">
-      <c r="A41" s="10" t="s">
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" ht="30" customHeight="1" spans="1:7">
-      <c r="A42" s="10" t="s">
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="1:7">
-      <c r="A43" s="10" t="s">
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" ht="30" customHeight="1" spans="1:7">
-      <c r="A44" s="10" t="s">
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" ht="30" customHeight="1" spans="1:7">
-      <c r="A45" s="67" t="s">
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="1:7">
-      <c r="A46" s="25" t="s">
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="71" t="s">
+      <c r="F46" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="72"/>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="1:7">
-      <c r="A47" s="25" t="s">
+      <c r="G46" s="64"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
-    </row>
-    <row r="48" ht="30" customHeight="1" spans="1:7">
-      <c r="A48" s="25" t="s">
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="65"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="68" t="s">
+      <c r="C48" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="70" t="s">
+      <c r="E48" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="71" t="s">
+      <c r="F48" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="72"/>
-    </row>
-    <row r="49" ht="30" customHeight="1" spans="1:7">
-      <c r="A49" s="25" t="s">
+      <c r="G48" s="64"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="68" t="s">
+      <c r="B49" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="74"/>
-    </row>
-    <row r="50" ht="27" spans="1:7">
-      <c r="A50" s="25" t="s">
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="65"/>
+    </row>
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="70" t="s">
+      <c r="D50" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="70" t="s">
+      <c r="E50" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="71" t="s">
+      <c r="F50" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="72"/>
-    </row>
-    <row r="51" ht="27" spans="1:7">
-      <c r="A51" s="25" t="s">
+      <c r="G50" s="64"/>
+    </row>
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="68" t="s">
+      <c r="B51" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="68" t="s">
+      <c r="C51" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="74"/>
-    </row>
-    <row r="52" ht="27" spans="1:7">
-      <c r="A52" s="25" t="s">
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="65"/>
+    </row>
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="68" t="s">
+      <c r="C52" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="70" t="s">
+      <c r="D52" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="72"/>
-    </row>
-    <row r="53" ht="27" spans="1:7">
-      <c r="A53" s="25" t="s">
+      <c r="G52" s="64"/>
+    </row>
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="68" t="s">
+      <c r="B53" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="68" t="s">
+      <c r="C53" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="76"/>
-    </row>
-    <row r="54" ht="27" spans="1:7">
-      <c r="A54" s="25" t="s">
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="66"/>
+    </row>
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="68" t="s">
+      <c r="C54" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="74"/>
-    </row>
-    <row r="55" ht="27" spans="1:7">
-      <c r="A55" s="25" t="s">
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="65"/>
+    </row>
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="68" t="s">
+      <c r="C55" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="70" t="s">
+      <c r="D55" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="70" t="s">
+      <c r="E55" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="71" t="s">
+      <c r="F55" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="72"/>
-    </row>
-    <row r="56" ht="27" spans="1:7">
-      <c r="A56" s="25" t="s">
+      <c r="G55" s="64"/>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="74"/>
-    </row>
-    <row r="57" ht="40.5" spans="1:7">
-      <c r="A57" s="25" t="s">
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="65"/>
+    </row>
+    <row r="57" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="77" t="s">
+      <c r="F57" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="78"/>
-    </row>
-    <row r="58" ht="27" spans="1:7">
-      <c r="A58" s="25" t="s">
+      <c r="G57" s="36"/>
+    </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="69" t="s">
+      <c r="C58" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="69" t="s">
+      <c r="D58" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="69" t="s">
+      <c r="E58" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="68" t="s">
+      <c r="F58" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="79"/>
+      <c r="G58" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G55:G56"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="42.8833333333333" style="26" customWidth="1"/>
-    <col min="3" max="3" width="33.4416666666667" style="26" customWidth="1"/>
-    <col min="4" max="4" width="39" style="27" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" style="27" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" style="26" customWidth="1"/>
-    <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="39" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="35"/>
-      <c r="B3" s="22" t="s">
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="35"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="13" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="35"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="13" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="35"/>
-      <c r="B6" s="13" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="62"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="35"/>
-      <c r="B7" s="13" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="62"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" ht="52.95" customHeight="1" spans="1:7">
-      <c r="A8" s="46" t="s">
+      <c r="D7" s="77"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="63"/>
+    </row>
+    <row r="8" spans="1:7" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A9" s="49"/>
-      <c r="B9" s="13" t="s">
+      <c r="G8" s="84"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="49"/>
-      <c r="B10" s="13" t="s">
+      <c r="D9" s="73"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="85"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A11" s="49"/>
-      <c r="B11" s="13" t="s">
+      <c r="D10" s="73"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="85"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
-    </row>
-    <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="49"/>
-      <c r="B12" s="13" t="s">
+      <c r="D11" s="73"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="85"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A13" s="30" t="s">
+      <c r="D12" s="73"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="86"/>
+    </row>
+    <row r="13" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A14" s="30" t="s">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A15" s="54" t="s">
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A16" s="55"/>
-      <c r="B16" s="13" t="s">
+      <c r="G15" s="84"/>
+    </row>
+    <row r="16" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68"/>
+      <c r="B16" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-    </row>
-    <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="56"/>
-      <c r="B17" s="13" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="85"/>
+    </row>
+    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A18" s="46" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="86"/>
+    </row>
+    <row r="18" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A19" s="9" t="s">
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
         <v>194</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="33" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="58" t="s">
+      <c r="E19" s="72"/>
+      <c r="F19" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A20" s="56"/>
+      <c r="G19" s="84"/>
+    </row>
+    <row r="20" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
       <c r="B20" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="86"/>
+    </row>
+    <row r="21" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A22" s="55"/>
-      <c r="B22" s="13" t="s">
+      <c r="G21" s="84"/>
+    </row>
+    <row r="22" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
+      <c r="B22" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-    </row>
-    <row r="23" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A23" s="55"/>
-      <c r="B23" s="13" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="85"/>
+    </row>
+    <row r="23" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="68"/>
+      <c r="B23" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
-    </row>
-    <row r="24" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A24" s="55"/>
-      <c r="B24" s="13" t="s">
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="85"/>
+    </row>
+    <row r="24" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="68"/>
+      <c r="B24" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
-    </row>
-    <row r="25" ht="28.8" customHeight="1" spans="1:7">
-      <c r="A25" s="56"/>
-      <c r="B25" s="13" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="85"/>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69"/>
+      <c r="B25" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="53"/>
-    </row>
-    <row r="26" ht="51.6" customHeight="1" spans="1:7">
-      <c r="A26" s="9" t="s">
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="86"/>
+    </row>
+    <row r="26" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="70" t="s">
         <v>199</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3872,113 +3418,154 @@
       <c r="C26" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26" s="84"/>
+    </row>
+    <row r="27" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="71"/>
+      <c r="B27" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" ht="51.6" customHeight="1" spans="1:7">
-      <c r="A27" s="12"/>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="E27" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="F27" s="83"/>
+      <c r="G27" s="86"/>
+    </row>
+    <row r="28" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="53"/>
-    </row>
-    <row r="28" ht="45" customHeight="1" spans="1:7">
-      <c r="A28" s="30" t="s">
+      <c r="B28" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" ht="36.6" customHeight="1" spans="1:7">
-      <c r="A29" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="F29" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" ht="42" customHeight="1" spans="1:7">
-      <c r="A30" s="46" t="s">
+      <c r="B30" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="C30" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="D30" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="E30" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="90" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" ht="41.4" customHeight="1" spans="1:7">
-      <c r="A31" s="30"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C15:C17"/>
@@ -3987,52 +3574,38 @@
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A25"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="25.775" customWidth="1"/>
-    <col min="4" max="4" width="41.2166666666667" customWidth="1"/>
-    <col min="5" max="5" width="19.2166666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:7">
+    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4055,342 +3628,342 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:7">
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:7">
-      <c r="A3" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:7">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
       <c r="B4" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:7">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
       <c r="B5" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:7">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
       <c r="B6" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87"/>
       <c r="B7" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:7">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" ht="94.5" spans="1:7">
+    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" ht="27" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:7">
-      <c r="A11" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>149</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89"/>
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
         <v>257</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:7">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="F13" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
+      <c r="B14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
+      <c r="E14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="C15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E15" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:7">
-      <c r="A15" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:7">
-      <c r="A16" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:7">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" ht="279" customHeight="1" spans="1:7">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18" t="s">
+      <c r="E19" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" ht="40.5" spans="1:7">
-      <c r="A20" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4399,7 +3972,7 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A16:A18"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="07.18-07.24" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288">
   <si>
     <t>修改日期/
 修改者</t>
@@ -66,7 +66,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Salt</t>
     </r>
@@ -806,6 +806,26 @@
     <t>引擎</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布式系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长期任务拆分</t>
+    </r>
+  </si>
+  <si>
     <t>TaskConsumerListener.java</t>
   </si>
   <si>
@@ -863,6 +883,81 @@
   </si>
   <si>
     <t>禅道ID：032</t>
+  </si>
+  <si>
+    <t>ResultConsumerListener.java</t>
+  </si>
+  <si>
+    <t>getscanResult()</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布式系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+问题：查看详情时显示安全帮的没有发送和接收字节，但后台显示有数据。
+解决：任务短时间内结束，直接获取任务结果并没有获取执行状态。</t>
+    </r>
+  </si>
+  <si>
+    <t>禅道ID：022</t>
+  </si>
+  <si>
+    <t>TaskMapper.xml</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> = findTaskByOrderId</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布式系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+sql优化（处理脏数据）</t>
+    </r>
   </si>
   <si>
     <t>2016/7/25
@@ -1037,126 +1132,47 @@
 </t>
   </si>
   <si>
-    <t>2016/7/26
-汤欣荣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅道ID：022</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>getscanResult()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskMapper.xml</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResultConsumerListener.java</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分布式系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-问题：查看详情时显示安全帮的没有发送和接收字节，但后台显示有数据。
-解决：任务短时间内结束，直接获取任务结果并没有获取执行状态。</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分布式系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>长期任务拆分</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = findTaskByOrderId</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分布式系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-sql优化（处理脏数据）</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>2016/7/27
+张少华</t>
+  </si>
+  <si>
+    <t>saveOrderAPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API立即购买—&gt;点击结算时，后台追加
+结束时间和当前时间的比较。
+</t>
+  </si>
+  <si>
+    <t>API立即购买/结算功能</t>
+  </si>
+  <si>
+    <t>modifyOrderBeginTime
+payConfirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收银台页面，点击确认付款时，后台追加
+结束时间和当前时间的比较。
+</t>
+  </si>
+  <si>
+    <t>收银台确认付款</t>
+  </si>
+  <si>
+    <t>shoppingcashier-desk2.jsp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,6 +1192,176 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1187,32 +1373,10 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,12 +1385,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39985351115451523"/>
+        <fgColor theme="6" tint="0.399853511154515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1286,13 +1636,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,18 +1914,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1358,6 +1965,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1373,14 +2016,113 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1397,191 +2139,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1871,595 +2511,597 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="34" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="39" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="34" style="38" customWidth="1"/>
+    <col min="3" max="3" width="21.775" style="38" customWidth="1"/>
+    <col min="4" max="4" width="39" style="39" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="39" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="38" customWidth="1"/>
+    <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" ht="69.75" customHeight="1" spans="1:7">
+      <c r="A2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="61"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="44" t="s">
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A3" s="47"/>
+      <c r="B3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="62"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="63"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="45" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A4" s="47"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="57"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A5" s="47"/>
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="61"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="10" t="s">
+      <c r="E5" s="76"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A6" s="47"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="62"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A7" s="47"/>
+      <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="62"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="10" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A8" s="47"/>
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="62"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="12" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A9" s="47"/>
+      <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="63"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="57"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:7">
+      <c r="A10" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="10" t="s">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" ht="32.1" customHeight="1" spans="1:7">
+      <c r="A11" s="61"/>
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="10" t="s">
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A12" s="61"/>
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="61"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="10" t="s">
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A13" s="61"/>
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="63"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="10" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="57"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A14" s="61"/>
+      <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="61"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="10" t="s">
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A15" s="61"/>
+      <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="63"/>
-    </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="10" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="57"/>
+    </row>
+    <row r="16" ht="27" spans="1:7">
+      <c r="A16" s="61"/>
+      <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A17" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="1:7">
+      <c r="A18" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" ht="27" spans="1:7">
+      <c r="A19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" ht="53.25" customHeight="1" spans="1:7">
+      <c r="A20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" ht="44.25" customHeight="1" spans="1:7">
+      <c r="A21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" ht="32.25" customHeight="1" spans="1:7">
+      <c r="A22" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:7">
+      <c r="A23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" ht="44.25" customHeight="1" spans="1:7">
+      <c r="A25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" ht="32.25" customHeight="1" spans="1:7">
+      <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" ht="42" customHeight="1" spans="1:7">
+      <c r="A27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" ht="48.75" customHeight="1" spans="1:7">
+      <c r="A28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:7">
+      <c r="A29" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:7">
+      <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:7">
+      <c r="A31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="15" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:7">
+      <c r="A32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:7">
+      <c r="A33" s="45" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2468,30 +3110,30 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="F33" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:7">
+      <c r="A34" s="56"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="D34" s="56"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:7">
+      <c r="A35" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2501,915 +3143,917 @@
         <v>88</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:7">
+      <c r="A36" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:7">
+      <c r="A37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="29" t="s">
+      <c r="E37" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:7">
+      <c r="A38" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" ht="30" customHeight="1" spans="1:7">
+      <c r="A39" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:7">
+      <c r="A40" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:7">
+      <c r="A41" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:7">
+      <c r="A42" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:7">
+      <c r="A43" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:7">
+      <c r="A44" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:7">
+      <c r="A45" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:7">
+      <c r="A46" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="64"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="G46" s="86"/>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="1:7">
+      <c r="A47" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="65"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="88"/>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="1:7">
+      <c r="A48" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="58" t="s">
+      <c r="F48" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="64"/>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="G48" s="86"/>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:7">
+      <c r="A49" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="65"/>
-    </row>
-    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="88"/>
+    </row>
+    <row r="50" ht="27" spans="1:7">
+      <c r="A50" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="64"/>
-    </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="G50" s="86"/>
+    </row>
+    <row r="51" ht="27" spans="1:7">
+      <c r="A51" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="65"/>
-    </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="88"/>
+    </row>
+    <row r="52" ht="27" spans="1:7">
+      <c r="A52" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="58" t="s">
+      <c r="F52" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="64"/>
-    </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+      <c r="G52" s="86"/>
+    </row>
+    <row r="53" ht="27" spans="1:7">
+      <c r="A53" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="66"/>
-    </row>
-    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="90"/>
+    </row>
+    <row r="54" ht="27" spans="1:7">
+      <c r="A54" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="65"/>
-    </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="88"/>
+    </row>
+    <row r="55" ht="27" spans="1:7">
+      <c r="A55" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E55" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="F55" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="64"/>
-    </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="G55" s="86"/>
+    </row>
+    <row r="56" ht="27" spans="1:7">
+      <c r="A56" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="65"/>
-    </row>
-    <row r="57" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="88"/>
+    </row>
+    <row r="57" ht="40.5" spans="1:7">
+      <c r="A57" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F57" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="36"/>
-    </row>
-    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+      <c r="G57" s="92"/>
+    </row>
+    <row r="58" ht="27" spans="1:7">
+      <c r="A58" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="E58" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="37"/>
+      <c r="G58" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G9"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="G55:G56"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.88671875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="39" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="42.8833333333333" style="38" customWidth="1"/>
+    <col min="3" max="3" width="33.4416666666667" style="38" customWidth="1"/>
+    <col min="4" max="4" width="39" style="39" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="39" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="38" customWidth="1"/>
+    <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" ht="69.75" customHeight="1" spans="1:7">
+      <c r="A2" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="61"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="72" t="s">
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A3" s="47"/>
+      <c r="B3" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="62"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="10" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A4" s="47"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="62"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="10" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A5" s="47"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="62"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="10" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A6" s="47"/>
+      <c r="B6" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="62"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A7" s="47"/>
+      <c r="B7" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="63"/>
-    </row>
-    <row r="8" spans="1:7" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+    </row>
+    <row r="8" ht="52.95" customHeight="1" spans="1:7">
+      <c r="A8" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="84"/>
-    </row>
-    <row r="9" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="10" t="s">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" ht="32.1" customHeight="1" spans="1:7">
+      <c r="A9" s="61"/>
+      <c r="B9" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="85"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="10" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A10" s="61"/>
+      <c r="B10" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="85"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="10" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A11" s="61"/>
+      <c r="B11" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="85"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="10" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A12" s="61"/>
+      <c r="B12" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="86"/>
-    </row>
-    <row r="13" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="65"/>
+    </row>
+    <row r="13" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A13" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A14" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A15" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="84"/>
-    </row>
-    <row r="16" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="10" t="s">
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A16" s="67"/>
+      <c r="B16" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="85"/>
-    </row>
-    <row r="17" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="10" t="s">
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+    </row>
+    <row r="17" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A17" s="68"/>
+      <c r="B17" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="86"/>
-    </row>
-    <row r="18" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="65"/>
+    </row>
+    <row r="18" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A18" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A19" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="57" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="84"/>
-    </row>
-    <row r="20" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A20" s="68"/>
       <c r="B20" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="86"/>
-    </row>
-    <row r="21" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="65"/>
+    </row>
+    <row r="21" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A21" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="72" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="84"/>
-    </row>
-    <row r="22" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="10" t="s">
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A22" s="67"/>
+      <c r="B22" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="85"/>
-    </row>
-    <row r="23" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="10" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+    </row>
+    <row r="23" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A23" s="67"/>
+      <c r="B23" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="85"/>
-    </row>
-    <row r="24" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="10" t="s">
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+    </row>
+    <row r="24" ht="54.75" customHeight="1" spans="1:7">
+      <c r="A24" s="67"/>
+      <c r="B24" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="85"/>
-    </row>
-    <row r="25" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="10" t="s">
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+    </row>
+    <row r="25" ht="28.8" customHeight="1" spans="1:7">
+      <c r="A25" s="68"/>
+      <c r="B25" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="86"/>
-    </row>
-    <row r="26" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="65"/>
+    </row>
+    <row r="26" ht="51.6" customHeight="1" spans="1:7">
+      <c r="A26" s="9" t="s">
         <v>199</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3418,154 +4062,142 @@
       <c r="C26" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="F26" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="G26" s="84"/>
-    </row>
-    <row r="27" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
+      <c r="F26" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" ht="51.6" customHeight="1" spans="1:7">
+      <c r="A27" s="12"/>
       <c r="B27" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="D27" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="86"/>
-    </row>
-    <row r="28" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="E27" s="56" t="s">
         <v>216</v>
       </c>
+      <c r="F27" s="69"/>
+      <c r="G27" s="65"/>
+    </row>
+    <row r="28" ht="45" customHeight="1" spans="1:7">
+      <c r="A28" s="42" t="s">
+        <v>217</v>
+      </c>
       <c r="B28" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" ht="36.6" customHeight="1" spans="1:7">
+      <c r="A29" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>216</v>
-      </c>
       <c r="B29" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E29" s="15" t="s">
         <v>224</v>
       </c>
+      <c r="E29" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="F29" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" ht="42" customHeight="1" spans="1:7">
+      <c r="A30" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="C30" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>162</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D31" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="E31" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" ht="91.2" customHeight="1" spans="1:7">
+      <c r="A31" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>162</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>279</v>
-      </c>
-      <c r="D32" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="E32" s="15"/>
+        <v>235</v>
+      </c>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" ht="70.8" customHeight="1" spans="1:7">
+      <c r="A32" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="20"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="13"/>
+      <c r="G32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C15:C17"/>
@@ -3574,38 +4206,52 @@
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D25"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G26:G27"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.4416666666667" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.775" customWidth="1"/>
+    <col min="4" max="4" width="41.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="19.2166666666667" customWidth="1"/>
+    <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="40.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3628,351 +4274,403 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="2" ht="81" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" ht="30" customHeight="1" spans="1:7">
+      <c r="A3" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
+    <row r="4" ht="30" customHeight="1" spans="1:7">
+      <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+    <row r="5" ht="30" customHeight="1" spans="1:7">
+      <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
+    <row r="6" ht="30" customHeight="1" spans="1:7">
+      <c r="A6" s="11"/>
       <c r="B6" s="8" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
+    <row r="7" ht="30" customHeight="1" spans="1:7">
+      <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>240</v>
+      <c r="D7" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="10" t="s">
+    <row r="8" ht="30" customHeight="1" spans="1:7">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>240</v>
+      <c r="D8" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="9" ht="94.5" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" ht="27" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>252</v>
+        <v>259</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="12" t="s">
+    <row r="11" ht="30" customHeight="1" spans="1:7">
+      <c r="A11" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>149</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="13" t="s">
+    <row r="12" ht="30" customHeight="1" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="C12" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:7">
+      <c r="A13" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="13" t="s">
+      <c r="D13" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:7">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="F14" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:7">
+      <c r="A15" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="D15" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:7">
+      <c r="A16" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="18" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:7">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:7">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" ht="279" customHeight="1" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" ht="40.5" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+        <v>274</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" ht="27" spans="1:7">
+      <c r="A21" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="29"/>
+      <c r="B22" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" ht="27" spans="1:7">
+      <c r="A23" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="32"/>
+      <c r="B24" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="14">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290">
   <si>
     <t>修改日期/
 修改者</t>
@@ -1160,6 +1160,12 @@
   </si>
   <si>
     <t>shoppingcashier-desk2.jsp</t>
+  </si>
+  <si>
+    <t>shopSettlement</t>
+  </si>
+  <si>
+    <t>购物车提交订单时，手机号验证失败</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1995,11 +2001,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2164,9 +2191,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2524,39 +2548,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="34" style="38" customWidth="1"/>
-    <col min="3" max="3" width="21.775" style="38" customWidth="1"/>
-    <col min="4" max="4" width="39" style="39" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" style="39" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" style="38" customWidth="1"/>
+    <col min="2" max="2" width="34" style="45" customWidth="1"/>
+    <col min="3" max="3" width="21.775" style="45" customWidth="1"/>
+    <col min="4" max="4" width="39" style="46" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="46" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="45" customWidth="1"/>
     <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2565,39 +2589,39 @@
       <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="46"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="47"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="51"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="47"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="20"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="57"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="47"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
@@ -2607,23 +2631,23 @@
       <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="46"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="47"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="20"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="51"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="47"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
@@ -2631,12 +2655,12 @@
         <v>19</v>
       </c>
       <c r="D7" s="20"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="51"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="47"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
@@ -2644,12 +2668,12 @@
         <v>21</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="51"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A9" s="47"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
@@ -2657,12 +2681,12 @@
         <v>23</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="57"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2674,7 +2698,7 @@
       <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="86" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2683,7 +2707,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A11" s="61"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
@@ -2693,7 +2717,7 @@
       <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="86" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -2702,7 +2726,7 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="61"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
@@ -2712,16 +2736,16 @@
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="46"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A13" s="61"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
@@ -2729,12 +2753,12 @@
         <v>35</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="57"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="64"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A14" s="61"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
@@ -2744,27 +2768,27 @@
       <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A15" s="61"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="57"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="64"/>
     </row>
     <row r="16" ht="27" spans="1:7">
-      <c r="A16" s="61"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
@@ -2774,7 +2798,7 @@
       <c r="D16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="86" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -2783,7 +2807,7 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2800,7 +2824,7 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" ht="33" customHeight="1" spans="1:7">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2810,7 +2834,7 @@
       <c r="D18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="86" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="13" t="s">
@@ -2819,7 +2843,7 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" ht="27" spans="1:7">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -2829,7 +2853,7 @@
       <c r="D19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="79" t="s">
+      <c r="E19" s="86" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="13" t="s">
@@ -2850,7 +2874,7 @@
       <c r="D20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="79" t="s">
+      <c r="E20" s="86" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="20" t="s">
@@ -3101,7 +3125,7 @@
       <c r="G32" s="18"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3110,26 +3134,26 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="76" t="s">
+      <c r="E33" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="52" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="56"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="56"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="18"/>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:7">
@@ -3143,7 +3167,7 @@
         <v>88</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="80" t="s">
+      <c r="E35" s="87" t="s">
         <v>89</v>
       </c>
       <c r="F35" s="20" t="s">
@@ -3164,7 +3188,7 @@
       <c r="D36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="79" t="s">
+      <c r="E36" s="86" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="20" t="s">
@@ -3185,7 +3209,7 @@
       <c r="D37" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="79" t="s">
+      <c r="E37" s="86" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="20" t="s">
@@ -3341,13 +3365,13 @@
       <c r="G44" s="18"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:7">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="67" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="22" t="s">
@@ -3365,238 +3389,238 @@
       <c r="A46" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="82" t="s">
+      <c r="B46" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="83" t="s">
+      <c r="C46" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="84" t="s">
+      <c r="D46" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="84" t="s">
+      <c r="E46" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="85" t="s">
+      <c r="F46" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="86"/>
+      <c r="G46" s="93"/>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:7">
       <c r="A47" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="88"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="95"/>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7">
       <c r="A48" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="82" t="s">
+      <c r="B48" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="D48" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="84" t="s">
+      <c r="E48" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="85" t="s">
+      <c r="F48" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="86"/>
+      <c r="G48" s="93"/>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:7">
       <c r="A49" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="82" t="s">
+      <c r="B49" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="88"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="95"/>
     </row>
     <row r="50" ht="27" spans="1:7">
       <c r="A50" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="82" t="s">
+      <c r="B50" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="82" t="s">
+      <c r="C50" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="84" t="s">
+      <c r="D50" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="84" t="s">
+      <c r="E50" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="85" t="s">
+      <c r="F50" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="86"/>
+      <c r="G50" s="93"/>
     </row>
     <row r="51" ht="27" spans="1:7">
       <c r="A51" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="82" t="s">
+      <c r="B51" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="82" t="s">
+      <c r="C51" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="88"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="95"/>
     </row>
     <row r="52" ht="27" spans="1:7">
       <c r="A52" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="82" t="s">
+      <c r="B52" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="82" t="s">
+      <c r="C52" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="84" t="s">
+      <c r="D52" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="84" t="s">
+      <c r="E52" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="85" t="s">
+      <c r="F52" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="86"/>
+      <c r="G52" s="93"/>
     </row>
     <row r="53" ht="27" spans="1:7">
       <c r="A53" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="82" t="s">
+      <c r="B53" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="82" t="s">
+      <c r="C53" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="89"/>
-      <c r="G53" s="90"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="97"/>
     </row>
     <row r="54" ht="27" spans="1:7">
       <c r="A54" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="82" t="s">
+      <c r="B54" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="82" t="s">
+      <c r="C54" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="88"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="95"/>
     </row>
     <row r="55" ht="27" spans="1:7">
       <c r="A55" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="82" t="s">
+      <c r="C55" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="84" t="s">
+      <c r="D55" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="84" t="s">
+      <c r="E55" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="85" t="s">
+      <c r="F55" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="86"/>
+      <c r="G55" s="93"/>
     </row>
     <row r="56" ht="27" spans="1:7">
       <c r="A56" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="82" t="s">
+      <c r="B56" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="82" t="s">
+      <c r="C56" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="88"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="95"/>
     </row>
     <row r="57" ht="40.5" spans="1:7">
       <c r="A57" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="91" t="s">
+      <c r="C57" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="85" t="s">
+      <c r="D57" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="85" t="s">
+      <c r="E57" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="91" t="s">
+      <c r="F57" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="92"/>
+      <c r="G57" s="99"/>
     </row>
     <row r="58" ht="27" spans="1:7">
       <c r="A58" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="82" t="s">
+      <c r="B58" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="83" t="s">
+      <c r="C58" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="83" t="s">
+      <c r="D58" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="83" t="s">
+      <c r="E58" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="82" t="s">
+      <c r="F58" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="93"/>
+      <c r="G58" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3665,39 +3689,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="42.8833333333333" style="38" customWidth="1"/>
-    <col min="3" max="3" width="33.4416666666667" style="38" customWidth="1"/>
-    <col min="4" max="4" width="39" style="39" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" style="39" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" style="38" customWidth="1"/>
+    <col min="2" max="2" width="42.8833333333333" style="45" customWidth="1"/>
+    <col min="3" max="3" width="33.4416666666667" style="45" customWidth="1"/>
+    <col min="4" max="4" width="39" style="46" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="46" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="45" customWidth="1"/>
     <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="49" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -3706,80 +3730,80 @@
       <c r="C2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="46"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="47"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="22" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="47"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="47"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="47"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="13" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="47"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="13" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" ht="52.95" customHeight="1" spans="1:7">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="65" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -3791,68 +3815,68 @@
       <c r="D8" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="67" t="s">
         <v>163</v>
       </c>
       <c r="G8" s="24"/>
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A9" s="61"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="13" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="61"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="13" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A11" s="61"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="13" t="s">
         <v>168</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="61"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="13" t="s">
         <v>170</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="65"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="13" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="49" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -3873,7 +3897,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="49" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -3894,7 +3918,7 @@
       <c r="G14" s="24"/>
     </row>
     <row r="15" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="73" t="s">
         <v>182</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -3909,35 +3933,35 @@
       <c r="E15" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="67" t="s">
         <v>186</v>
       </c>
       <c r="G15" s="24"/>
     </row>
     <row r="16" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A16" s="67"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="68"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="72"/>
     </row>
     <row r="18" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="65" t="s">
         <v>189</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -3963,25 +3987,25 @@
         <v>195</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="52" t="s">
         <v>196</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="77" t="s">
         <v>197</v>
       </c>
       <c r="G19" s="24"/>
     </row>
     <row r="20" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A20" s="68"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="5" t="s">
         <v>198</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="65"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="72"/>
     </row>
     <row r="21" ht="54.75" customHeight="1" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -3997,60 +4021,60 @@
       <c r="E21" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="67" t="s">
         <v>202</v>
       </c>
       <c r="G21" s="24"/>
     </row>
     <row r="22" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A22" s="67"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
     </row>
     <row r="23" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A23" s="67"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="13" t="s">
         <v>190</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
     </row>
     <row r="24" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A24" s="67"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="13" t="s">
         <v>205</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
     </row>
     <row r="25" ht="28.8" customHeight="1" spans="1:7">
-      <c r="A25" s="68"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="65"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="72"/>
     </row>
     <row r="26" ht="51.6" customHeight="1" spans="1:7">
       <c r="A26" s="9" t="s">
@@ -4062,13 +4086,13 @@
       <c r="C26" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="79" t="s">
         <v>212</v>
       </c>
       <c r="G26" s="24"/>
@@ -4081,17 +4105,17 @@
       <c r="C27" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="65"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="72"/>
     </row>
     <row r="28" ht="45" customHeight="1" spans="1:7">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="49" t="s">
         <v>217</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -4112,7 +4136,7 @@
       <c r="G28" s="18"/>
     </row>
     <row r="29" ht="36.6" customHeight="1" spans="1:7">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="65" t="s">
         <v>217</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -4133,7 +4157,7 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:7">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="65" t="s">
         <v>227</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -4154,7 +4178,7 @@
       <c r="G30" s="18"/>
     </row>
     <row r="31" ht="91.2" customHeight="1" spans="1:7">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="65" t="s">
         <v>227</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -4163,7 +4187,7 @@
       <c r="C31" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="80" t="s">
         <v>234</v>
       </c>
       <c r="E31" s="20" t="s">
@@ -4175,16 +4199,16 @@
       <c r="G31" s="18"/>
     </row>
     <row r="32" ht="70.8" customHeight="1" spans="1:7">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="65" t="s">
         <v>227</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="80" t="s">
         <v>238</v>
       </c>
       <c r="E32" s="20"/>
@@ -4233,12 +4257,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4593,7 +4617,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" ht="27" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="26" t="s">
         <v>280</v>
       </c>
@@ -4643,15 +4667,52 @@
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="32"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" ht="27" spans="1:7">
+      <c r="A25" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="26"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -4260,9 +4260,9 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291">
   <si>
     <t>修改日期/
 修改者</t>
@@ -1167,18 +1167,21 @@
   <si>
     <t>购物车提交订单时，手机号验证失败</t>
   </si>
+  <si>
+    <t>个人资料，邮箱改变时，新的邮箱没保存</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,23 +1197,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1225,27 +1221,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1261,6 +1250,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1268,7 +1264,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1282,14 +1326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,55 +1334,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,12 +1349,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1403,7 +1386,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,19 +1434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,19 +1452,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,37 +1494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,25 +1506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,19 +1524,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,13 +1554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,8 +1629,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,11 +1650,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1701,196 +1723,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1971,59 +1954,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2088,15 +2035,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2121,20 +2062,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2548,39 +2480,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="34" style="45" customWidth="1"/>
-    <col min="3" max="3" width="21.775" style="45" customWidth="1"/>
-    <col min="4" max="4" width="39" style="46" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" style="46" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" style="45" customWidth="1"/>
+    <col min="2" max="2" width="34" style="33" customWidth="1"/>
+    <col min="3" max="3" width="21.775" style="33" customWidth="1"/>
+    <col min="4" max="4" width="39" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="34" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="33" customWidth="1"/>
     <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2589,39 +2521,39 @@
       <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="54"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="58"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="54"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="20"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="54"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
@@ -2631,23 +2563,23 @@
       <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="53"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="54"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="20"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="58"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="54"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
@@ -2655,12 +2587,12 @@
         <v>19</v>
       </c>
       <c r="D7" s="20"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="58"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="54"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
@@ -2668,12 +2600,12 @@
         <v>21</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="58"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A9" s="54"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
@@ -2681,12 +2613,12 @@
         <v>23</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="52"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2698,7 +2630,7 @@
       <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="69" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2707,7 +2639,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A11" s="68"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
@@ -2717,7 +2649,7 @@
       <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="69" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -2726,7 +2658,7 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="68"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
@@ -2736,16 +2668,16 @@
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="53"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A13" s="68"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
@@ -2753,12 +2685,12 @@
         <v>35</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="64"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A14" s="68"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
@@ -2768,27 +2700,27 @@
       <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="53"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A15" s="68"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="64"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" ht="27" spans="1:7">
-      <c r="A16" s="68"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
@@ -2798,7 +2730,7 @@
       <c r="D16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="69" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -2807,7 +2739,7 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="37" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2824,7 +2756,7 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" ht="33" customHeight="1" spans="1:7">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2834,7 +2766,7 @@
       <c r="D18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="69" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="13" t="s">
@@ -2843,7 +2775,7 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" ht="27" spans="1:7">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="37" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -2853,7 +2785,7 @@
       <c r="D19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="69" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="13" t="s">
@@ -2874,7 +2806,7 @@
       <c r="D20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="69" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="20" t="s">
@@ -3125,7 +3057,7 @@
       <c r="G32" s="18"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="40" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3134,26 +3066,26 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="83" t="s">
+      <c r="E33" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="63"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="63"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="18"/>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:7">
@@ -3167,7 +3099,7 @@
         <v>88</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="87" t="s">
+      <c r="E35" s="70" t="s">
         <v>89</v>
       </c>
       <c r="F35" s="20" t="s">
@@ -3188,7 +3120,7 @@
       <c r="D36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="86" t="s">
+      <c r="E36" s="69" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="20" t="s">
@@ -3209,7 +3141,7 @@
       <c r="D37" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="69" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="20" t="s">
@@ -3365,13 +3297,13 @@
       <c r="G44" s="18"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:7">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="31" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="22" t="s">
@@ -3389,238 +3321,238 @@
       <c r="A46" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="90" t="s">
+      <c r="C46" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="91" t="s">
+      <c r="D46" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="91" t="s">
+      <c r="E46" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="92" t="s">
+      <c r="F46" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="93"/>
+      <c r="G46" s="76"/>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:7">
       <c r="A47" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="89" t="s">
+      <c r="C47" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="95"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="78"/>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7">
       <c r="A48" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="89" t="s">
+      <c r="C48" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="91" t="s">
+      <c r="D48" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="91" t="s">
+      <c r="E48" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="92" t="s">
+      <c r="F48" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="93"/>
+      <c r="G48" s="76"/>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:7">
       <c r="A49" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="89" t="s">
+      <c r="B49" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="89" t="s">
+      <c r="C49" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="95"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
     </row>
     <row r="50" ht="27" spans="1:7">
       <c r="A50" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="89" t="s">
+      <c r="C50" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="91" t="s">
+      <c r="D50" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="91" t="s">
+      <c r="E50" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="92" t="s">
+      <c r="F50" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="93"/>
+      <c r="G50" s="76"/>
     </row>
     <row r="51" ht="27" spans="1:7">
       <c r="A51" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="89" t="s">
+      <c r="C51" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="95"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="78"/>
     </row>
     <row r="52" ht="27" spans="1:7">
       <c r="A52" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="89" t="s">
+      <c r="C52" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="91" t="s">
+      <c r="D52" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="91" t="s">
+      <c r="E52" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="92" t="s">
+      <c r="F52" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="93"/>
+      <c r="G52" s="76"/>
     </row>
     <row r="53" ht="27" spans="1:7">
       <c r="A53" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="89" t="s">
+      <c r="B53" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="89" t="s">
+      <c r="C53" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="97"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="80"/>
     </row>
     <row r="54" ht="27" spans="1:7">
       <c r="A54" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="89" t="s">
+      <c r="C54" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="95"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
     </row>
     <row r="55" ht="27" spans="1:7">
       <c r="A55" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="89" t="s">
+      <c r="C55" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="91" t="s">
+      <c r="D55" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="91" t="s">
+      <c r="E55" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="92" t="s">
+      <c r="F55" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="93"/>
+      <c r="G55" s="76"/>
     </row>
     <row r="56" ht="27" spans="1:7">
       <c r="A56" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="89" t="s">
+      <c r="B56" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="89" t="s">
+      <c r="C56" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="95"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="78"/>
     </row>
     <row r="57" ht="40.5" spans="1:7">
       <c r="A57" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="98" t="s">
+      <c r="C57" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="92" t="s">
+      <c r="D57" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="92" t="s">
+      <c r="E57" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="98" t="s">
+      <c r="F57" s="81" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="99"/>
+      <c r="G57" s="82"/>
     </row>
     <row r="58" ht="27" spans="1:7">
       <c r="A58" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="89" t="s">
+      <c r="B58" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="90" t="s">
+      <c r="C58" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="90" t="s">
+      <c r="D58" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="90" t="s">
+      <c r="E58" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="89" t="s">
+      <c r="F58" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="44"/>
+      <c r="G58" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3689,39 +3621,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="42.8833333333333" style="45" customWidth="1"/>
-    <col min="3" max="3" width="33.4416666666667" style="45" customWidth="1"/>
-    <col min="4" max="4" width="39" style="46" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" style="46" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" style="45" customWidth="1"/>
+    <col min="2" max="2" width="42.8833333333333" style="33" customWidth="1"/>
+    <col min="3" max="3" width="33.4416666666667" style="33" customWidth="1"/>
+    <col min="4" max="4" width="39" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="34" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="33" customWidth="1"/>
     <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="37" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -3730,80 +3662,80 @@
       <c r="C2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="54"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="22" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="54"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="54"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="54"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="13" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="54"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="13" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" ht="52.95" customHeight="1" spans="1:7">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -3815,68 +3747,68 @@
       <c r="D8" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="31" t="s">
         <v>163</v>
       </c>
       <c r="G8" s="24"/>
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A9" s="68"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="13" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="68"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="13" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A11" s="68"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="13" t="s">
         <v>168</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="68"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="13" t="s">
         <v>170</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="72"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="37" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -3897,7 +3829,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="37" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -3918,7 +3850,7 @@
       <c r="G14" s="24"/>
     </row>
     <row r="15" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="59" t="s">
         <v>182</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -3933,35 +3865,35 @@
       <c r="E15" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="31" t="s">
         <v>186</v>
       </c>
       <c r="G15" s="24"/>
     </row>
     <row r="16" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A16" s="74"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="75"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="72"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="29" t="s">
         <v>189</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -3987,25 +3919,25 @@
         <v>195</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="40" t="s">
         <v>196</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="62" t="s">
         <v>197</v>
       </c>
       <c r="G19" s="24"/>
     </row>
     <row r="20" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A20" s="75"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="5" t="s">
         <v>198</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="72"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" ht="54.75" customHeight="1" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -4021,60 +3953,60 @@
       <c r="E21" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="31" t="s">
         <v>202</v>
       </c>
       <c r="G21" s="24"/>
     </row>
     <row r="22" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A22" s="74"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
     </row>
     <row r="23" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A23" s="74"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="13" t="s">
         <v>190</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
     </row>
     <row r="24" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A24" s="74"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="13" t="s">
         <v>205</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
     </row>
     <row r="25" ht="28.8" customHeight="1" spans="1:7">
-      <c r="A25" s="75"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="72"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" ht="51.6" customHeight="1" spans="1:7">
       <c r="A26" s="9" t="s">
@@ -4086,13 +4018,13 @@
       <c r="C26" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="62" t="s">
         <v>212</v>
       </c>
       <c r="G26" s="24"/>
@@ -4105,17 +4037,17 @@
       <c r="C27" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="76"/>
-      <c r="G27" s="72"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" ht="45" customHeight="1" spans="1:7">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="37" t="s">
         <v>217</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -4136,7 +4068,7 @@
       <c r="G28" s="18"/>
     </row>
     <row r="29" ht="36.6" customHeight="1" spans="1:7">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="29" t="s">
         <v>217</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -4157,7 +4089,7 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:7">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="29" t="s">
         <v>227</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -4178,7 +4110,7 @@
       <c r="G30" s="18"/>
     </row>
     <row r="31" ht="91.2" customHeight="1" spans="1:7">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="29" t="s">
         <v>227</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -4187,7 +4119,7 @@
       <c r="C31" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="4" t="s">
         <v>234</v>
       </c>
       <c r="E31" s="20" t="s">
@@ -4199,16 +4131,16 @@
       <c r="G31" s="18"/>
     </row>
     <row r="32" ht="70.8" customHeight="1" spans="1:7">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="29" t="s">
         <v>227</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="4" t="s">
         <v>238</v>
       </c>
       <c r="E32" s="20"/>
@@ -4262,7 +4194,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4618,7 +4550,7 @@
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="9" t="s">
         <v>280</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -4627,92 +4559,102 @@
       <c r="C21" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="29"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
     </row>
     <row r="23" ht="27" spans="1:7">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="29" t="s">
         <v>280</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" ht="27" spans="1:7">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="26"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" ht="27" spans="1:7">
+      <c r="A26" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303">
   <si>
     <t>修改日期/
 修改者</t>
@@ -1170,18 +1170,75 @@
   <si>
     <t>个人资料，邮箱改变时，新的邮箱没保存</t>
   </si>
+  <si>
+    <t>2016/7/28
+张少华</t>
+  </si>
+  <si>
+    <t>settlementAPI()
+calApiPrice() 新增
+checkAPI()
+saveOrderAPI()
+shoppingCarAPI</t>
+  </si>
+  <si>
+    <t>需求变更：API计价</t>
+  </si>
+  <si>
+    <t>API相关功能：
+  API立即购买
+  添加购物车
+  结算
+  支付
+API详情页/购物车/结算页的显示</t>
+  </si>
+  <si>
+    <t>需求变更：
+API计价</t>
+  </si>
+  <si>
+    <t>ApiPriceDao      新增
+ApiPriceDaoImpl  新增</t>
+  </si>
+  <si>
+    <t>ApiPrice         新增
+ApiPriceMapping.xml  新增</t>
+  </si>
+  <si>
+    <t>IApiPriceService    新增
+ApiPriceServiceImpl 新增</t>
+  </si>
+  <si>
+    <t>portalindex.css
+apiDetails.jsp
+apiDetails2.jsp
+apiDetails3.jsp
+apiDetails4.jsp
+apiDetails5.jsp
+newSettlement.jsp
+settlement.jsp</t>
+  </si>
+  <si>
+    <t>apidetails.js</t>
+  </si>
+  <si>
+    <t>InternalAPI.properties</t>
+  </si>
+  <si>
+    <t>sqlMapConfig.xml</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,16 +1254,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,30 +1283,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,61 +1313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1326,6 +1328,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1334,10 +1397,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1380,7 +1444,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,13 +1534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,7 +1558,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,19 +1576,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,55 +1600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,55 +1612,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,15 +1690,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1646,6 +1701,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1668,8 +1747,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1691,30 +1770,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1723,6 +1778,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1731,10 +1795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1743,16 +1807,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1761,119 +1825,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1954,86 +2018,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2480,39 +2586,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="34" style="33" customWidth="1"/>
-    <col min="3" max="3" width="21.775" style="33" customWidth="1"/>
-    <col min="4" max="4" width="39" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" style="34" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" style="33" customWidth="1"/>
+    <col min="2" max="2" width="34" style="46" customWidth="1"/>
+    <col min="3" max="3" width="21.775" style="46" customWidth="1"/>
+    <col min="4" max="4" width="39" style="47" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="47" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="46" customWidth="1"/>
     <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2521,39 +2627,39 @@
       <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="41"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="42"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="46"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="42"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="20"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="52"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="42"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
@@ -2563,23 +2669,23 @@
       <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="42"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="20"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="46"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="42"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
@@ -2587,12 +2693,12 @@
         <v>19</v>
       </c>
       <c r="D7" s="20"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="46"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A8" s="42"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
@@ -2600,12 +2706,12 @@
         <v>21</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="46"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A9" s="42"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="16" t="s">
         <v>22</v>
       </c>
@@ -2613,12 +2719,12 @@
         <v>23</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="52"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="66" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2630,7 +2736,7 @@
       <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="83" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -2639,7 +2745,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A11" s="54"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
@@ -2649,7 +2755,7 @@
       <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="83" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -2658,7 +2764,7 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="54"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
@@ -2668,16 +2774,16 @@
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A13" s="54"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
@@ -2685,12 +2791,12 @@
         <v>35</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="52"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="65"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A14" s="54"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
@@ -2700,27 +2806,27 @@
       <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="41"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A15" s="54"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="52"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="65"/>
     </row>
     <row r="16" ht="27" spans="1:7">
-      <c r="A16" s="54"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
@@ -2730,7 +2836,7 @@
       <c r="D16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="83" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -2739,7 +2845,7 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="50" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2756,7 +2862,7 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" ht="33" customHeight="1" spans="1:7">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2766,7 +2872,7 @@
       <c r="D18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="83" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="13" t="s">
@@ -2775,7 +2881,7 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" ht="27" spans="1:7">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="50" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -2785,7 +2891,7 @@
       <c r="D19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="83" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="13" t="s">
@@ -2806,7 +2912,7 @@
       <c r="D20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="83" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="20" t="s">
@@ -3057,7 +3163,7 @@
       <c r="G32" s="18"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="53" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3066,26 +3172,26 @@
       <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="53" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="51"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="51"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="18"/>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:7">
@@ -3099,7 +3205,7 @@
         <v>88</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="84" t="s">
         <v>89</v>
       </c>
       <c r="F35" s="20" t="s">
@@ -3120,7 +3226,7 @@
       <c r="D36" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="83" t="s">
         <v>91</v>
       </c>
       <c r="F36" s="20" t="s">
@@ -3141,7 +3247,7 @@
       <c r="D37" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="83" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="20" t="s">
@@ -3297,13 +3403,13 @@
       <c r="G44" s="18"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:7">
-      <c r="A45" s="71" t="s">
+      <c r="A45" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="32" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="22" t="s">
@@ -3321,238 +3427,238 @@
       <c r="A46" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="73" t="s">
+      <c r="C46" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="74" t="s">
+      <c r="D46" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="74" t="s">
+      <c r="E46" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="F46" s="75" t="s">
+      <c r="F46" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="76"/>
+      <c r="G46" s="90"/>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:7">
       <c r="A47" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="78"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="92"/>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7">
       <c r="A48" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="74" t="s">
+      <c r="D48" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="74" t="s">
+      <c r="E48" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="75" t="s">
+      <c r="F48" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G48" s="76"/>
+      <c r="G48" s="90"/>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:7">
       <c r="A49" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="78"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="92"/>
     </row>
     <row r="50" ht="27" spans="1:7">
       <c r="A50" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="72" t="s">
+      <c r="C50" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="74" t="s">
+      <c r="D50" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="74" t="s">
+      <c r="E50" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="75" t="s">
+      <c r="F50" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="76"/>
+      <c r="G50" s="90"/>
     </row>
     <row r="51" ht="27" spans="1:7">
       <c r="A51" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="78"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="92"/>
     </row>
     <row r="52" ht="27" spans="1:7">
       <c r="A52" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="72" t="s">
+      <c r="C52" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="74" t="s">
+      <c r="D52" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="74" t="s">
+      <c r="E52" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="75" t="s">
+      <c r="F52" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="76"/>
+      <c r="G52" s="90"/>
     </row>
     <row r="53" ht="27" spans="1:7">
       <c r="A53" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="72" t="s">
+      <c r="C53" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="80"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="94"/>
     </row>
     <row r="54" ht="27" spans="1:7">
       <c r="A54" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="78"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="92"/>
     </row>
     <row r="55" ht="27" spans="1:7">
       <c r="A55" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="72" t="s">
+      <c r="C55" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="74" t="s">
+      <c r="D55" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="74" t="s">
+      <c r="E55" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="75" t="s">
+      <c r="F55" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="76"/>
+      <c r="G55" s="90"/>
     </row>
     <row r="56" ht="27" spans="1:7">
       <c r="A56" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="72" t="s">
+      <c r="C56" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="78"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="92"/>
     </row>
     <row r="57" ht="40.5" spans="1:7">
       <c r="A57" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="81" t="s">
+      <c r="C57" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="D57" s="75" t="s">
+      <c r="D57" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="75" t="s">
+      <c r="E57" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="81" t="s">
+      <c r="F57" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="G57" s="82"/>
+      <c r="G57" s="96"/>
     </row>
     <row r="58" ht="27" spans="1:7">
       <c r="A58" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="73" t="s">
+      <c r="C58" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="D58" s="73" t="s">
+      <c r="D58" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="73" t="s">
+      <c r="E58" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="72" t="s">
+      <c r="F58" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="G58" s="32"/>
+      <c r="G58" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -3621,39 +3727,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="42.8833333333333" style="33" customWidth="1"/>
-    <col min="3" max="3" width="33.4416666666667" style="33" customWidth="1"/>
-    <col min="4" max="4" width="39" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.6666666666667" style="34" customWidth="1"/>
-    <col min="6" max="6" width="19.6666666666667" style="33" customWidth="1"/>
+    <col min="2" max="2" width="42.8833333333333" style="46" customWidth="1"/>
+    <col min="3" max="3" width="33.4416666666667" style="46" customWidth="1"/>
+    <col min="4" max="4" width="39" style="47" customWidth="1"/>
+    <col min="5" max="5" width="15.6666666666667" style="47" customWidth="1"/>
+    <col min="6" max="6" width="19.6666666666667" style="46" customWidth="1"/>
     <col min="7" max="7" width="11.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="69.75" customHeight="1" spans="1:7">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="50" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -3662,80 +3768,80 @@
       <c r="C2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="41"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A3" s="42"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="22" t="s">
         <v>151</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A4" s="42"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A5" s="42"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A6" s="42"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="13" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A7" s="42"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="13" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" ht="52.95" customHeight="1" spans="1:7">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="66" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -3747,68 +3853,68 @@
       <c r="D8" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="32" t="s">
         <v>163</v>
       </c>
       <c r="G8" s="24"/>
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="1:7">
-      <c r="A9" s="54"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="13" t="s">
         <v>164</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A10" s="54"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="13" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A11" s="54"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="13" t="s">
         <v>168</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:7">
-      <c r="A12" s="54"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="13" t="s">
         <v>170</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="58"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="13" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="50" t="s">
         <v>172</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -3829,7 +3935,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="50" t="s">
         <v>172</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -3850,7 +3956,7 @@
       <c r="G14" s="24"/>
     </row>
     <row r="15" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="73" t="s">
         <v>182</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -3865,35 +3971,35 @@
       <c r="E15" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="32" t="s">
         <v>186</v>
       </c>
       <c r="G15" s="24"/>
     </row>
     <row r="16" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A16" s="60"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A17" s="61"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="58"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="72"/>
     </row>
     <row r="18" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="66" t="s">
         <v>189</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -3919,25 +4025,25 @@
         <v>195</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="53" t="s">
         <v>196</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="76" t="s">
         <v>197</v>
       </c>
       <c r="G19" s="24"/>
     </row>
     <row r="20" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A20" s="61"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="5" t="s">
         <v>198</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="58"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="72"/>
     </row>
     <row r="21" ht="54.75" customHeight="1" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -3953,60 +4059,60 @@
       <c r="E21" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="32" t="s">
         <v>202</v>
       </c>
       <c r="G21" s="24"/>
     </row>
     <row r="22" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A22" s="60"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="13" t="s">
         <v>203</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
     </row>
     <row r="23" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A23" s="60"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="13" t="s">
         <v>190</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="71"/>
     </row>
     <row r="24" ht="54.75" customHeight="1" spans="1:7">
-      <c r="A24" s="60"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="13" t="s">
         <v>205</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
     </row>
     <row r="25" ht="28.8" customHeight="1" spans="1:7">
-      <c r="A25" s="61"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="13" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="58"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="72"/>
     </row>
     <row r="26" ht="51.6" customHeight="1" spans="1:7">
       <c r="A26" s="9" t="s">
@@ -4018,13 +4124,13 @@
       <c r="C26" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="76" t="s">
         <v>212</v>
       </c>
       <c r="G26" s="24"/>
@@ -4037,17 +4143,17 @@
       <c r="C27" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="58"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="72"/>
     </row>
     <row r="28" ht="45" customHeight="1" spans="1:7">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="50" t="s">
         <v>217</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -4068,7 +4174,7 @@
       <c r="G28" s="18"/>
     </row>
     <row r="29" ht="36.6" customHeight="1" spans="1:7">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="66" t="s">
         <v>217</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -4089,7 +4195,7 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" ht="42" customHeight="1" spans="1:7">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="66" t="s">
         <v>227</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -4110,7 +4216,7 @@
       <c r="G30" s="18"/>
     </row>
     <row r="31" ht="91.2" customHeight="1" spans="1:7">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="66" t="s">
         <v>227</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -4131,7 +4237,7 @@
       <c r="G31" s="18"/>
     </row>
     <row r="32" ht="70.8" customHeight="1" spans="1:7">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="66" t="s">
         <v>227</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -4189,12 +4295,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4550,7 +4656,7 @@
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="26" t="s">
         <v>280</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -4562,25 +4668,25 @@
       <c r="D21" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="12"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="18" t="s">
         <v>132</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" ht="27" spans="1:7">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="26" t="s">
         <v>280</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -4592,25 +4698,25 @@
       <c r="D23" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="24" t="s">
         <v>287</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" ht="27" spans="1:7">
-      <c r="A25" s="9" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="26" t="s">
         <v>280</v>
       </c>
       <c r="B25" s="18" t="s">
@@ -4619,59 +4725,179 @@
       <c r="C25" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" ht="27" spans="1:7">
-      <c r="A26" s="9" t="s">
-        <v>280</v>
-      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="28"/>
       <c r="B26" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="25"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" ht="67.5" spans="1:7">
+      <c r="A27" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" ht="27" spans="1:7">
+      <c r="A28" s="40"/>
+      <c r="B28" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" ht="27" spans="1:7">
+      <c r="A29" s="40"/>
+      <c r="B29" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" ht="27" spans="1:7">
+      <c r="A30" s="40"/>
+      <c r="B30" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="42"/>
+    </row>
+    <row r="31" ht="64" customHeight="1" spans="1:7">
+      <c r="A31" s="40"/>
+      <c r="B31" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="40"/>
+      <c r="B32" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="42"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="40"/>
+      <c r="B34" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="42"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="40"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="42"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="40"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="42"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="25"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A34"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D27:D34"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E27:E34"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F34"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
+++ b/csp2/cloud-security-platform/WebRoot/doc/Bug修改记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="07.18-07.24" sheetId="1" r:id="rId1"/>
     <sheet name="汤" sheetId="2" r:id="rId2"/>
     <sheet name="07.25-07.31" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="316">
   <si>
     <t>修改日期/
 修改者</t>
@@ -66,7 +66,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Salt</t>
     </r>
@@ -1182,17 +1182,6 @@
 shoppingCarAPI</t>
   </si>
   <si>
-    <t>需求变更：API计价</t>
-  </si>
-  <si>
-    <t>API相关功能：
-  API立即购买
-  添加购物车
-  结算
-  支付
-API详情页/购物车/结算页的显示</t>
-  </si>
-  <si>
     <t>需求变更：
 API计价</t>
   </si>
@@ -1227,18 +1216,82 @@
   <si>
     <t>sqlMapConfig.xml</t>
   </si>
+  <si>
+    <t>waf详情页选择价格</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>waf定价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/28
+高小艳</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingController</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>selfHelpOrderInit()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingCar()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderBack()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>calPrice()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>selfHelpOrderOpera()</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulnScanDetails.jsp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>details.js</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求变更：API计价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求变更：网站安全帮服务定价（不包括waf）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>API相关功能：
+  API立即购买
+  添加购物车
+  结算
+  支付
+API详情页/购物车/结算页的显示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">网站安全帮相关功能：
+ 立即购买
+  添加购物车
+  返回修改订单信息
+ </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,150 +1309,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1426,10 +1335,16 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1438,198 +1353,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399853511154515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39982299264503923"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1689,255 +1418,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1967,322 +1454,314 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAl